--- a/resource/40.design/440.development/[Saturn]449.DB_insert.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.DB_insert.xlsx
@@ -1934,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
       <selection activeCell="V3" sqref="V3:V257"/>
     </sheetView>
   </sheetViews>
@@ -2029,11 +2029,11 @@
       </c>
       <c r="J3" s="10">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
         <f ca="1">RANDBETWEEN(1, 7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="10">
         <v>100</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="O3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>10</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="V3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", '" &amp; C3 &amp; "', '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', "&amp; F3 &amp; ", '"&amp; G3 &amp; "', '"&amp; H3 &amp; "', '"&amp; I3 &amp; "', '"&amp; J3 &amp; "', '"&amp; K3 &amp; "', "&amp; L3 &amp; ", '"&amp; M3 &amp; "', '"&amp; N3 &amp; "', " &amp; O3 &amp; ", " &amp; P3 &amp; ", " &amp; Q3 &amp; ", " &amp; R3 &amp; ", " &amp; S3 &amp; ", " &amp; T3 &amp; ", " &amp; U3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (1, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '1', '2', '4', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (1, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '1', '2', '5', '4', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
       </c>
       <c r="J4" s="10">
         <f t="shared" ref="J4:J67" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K67" ca="1" si="1">RANDBETWEEN(1, 7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L4" s="10">
         <v>100</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="O4" s="3" t="str">
         <f t="shared" ref="O4:O67" ca="1" si="2">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>10</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" ref="V4:V67" ca="1" si="3">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", '" &amp; C4 &amp; "', '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', "&amp; F4 &amp; ", '"&amp; G4 &amp; "', '"&amp; H4 &amp; "', '"&amp; I4 &amp; "', '"&amp; J4 &amp; "', '"&amp; K4 &amp; "', "&amp; L4 &amp; ", '"&amp; M4 &amp; "', '"&amp; N4 &amp; "', " &amp; O4 &amp; ", " &amp; P4 &amp; ", " &amp; Q4 &amp; ", " &amp; R4 &amp; ", " &amp; S4 &amp; ", " &amp; T4 &amp; ", " &amp; U4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (2, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '1', '1', '2', '2', '6', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (2, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '1', '1', '2', '5', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5" s="10">
         <v>100</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="O5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>10</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (3, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '1', '1', '2', '5', '7', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (3, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '1', '1', '2', '2', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -2236,11 +2236,11 @@
       </c>
       <c r="J6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" s="10">
         <v>100</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (4, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02&amp;/16/1000001077/1000001077_main_076.jpg', 116400, '1', '1', '2', '1', '3', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (4, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02&amp;/16/1000001077/1000001077_main_076.jpg', 116400, '1', '1', '2', '2', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -2305,11 +2305,11 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L7" s="10">
         <v>100</v>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="O7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>10</v>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (5, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '1', '1', '2', '5', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (5, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '1', '1', '2', '1', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="10">
         <v>100</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>10</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (6, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '1', '2', '3', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (6, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '1', '2', '5', '4', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -2443,11 +2443,11 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L9" s="10">
         <v>100</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="O9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (7, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '1', '1', '2', '4', '6', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (7, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '1', '1', '2', '1', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L10" s="10">
         <v>100</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>10</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (8, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '1', '2', '5', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (8, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '1', '2', '5', '4', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="O11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>10</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (9, '솔가 달맞이꽃 오일 500mg 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000335/1000000335_main_08.jpg', 17400, '1', '1', '2', '3', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (9, '솔가 달맞이꽃 오일 500mg 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000335/1000000335_main_08.jpg', 17400, '1', '1', '2', '4', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -2650,11 +2650,11 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="10">
         <v>100</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="O12" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>10</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (10, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '1', '2', '5', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (10, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '1', '2', '4', '5', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="J13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L13" s="10">
         <v>100</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="O13" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>10</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (11, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '1', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (11, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '1', '2', '2', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L14" s="10">
         <v>100</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="O14" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (12, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '1', '2', '2', '6', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (12, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '1', '2', '5', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -2857,11 +2857,11 @@
       </c>
       <c r="J15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" s="10">
         <v>100</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="O15" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (13, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '1', '1', '2', '3', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (13, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '1', '1', '2', '5', '3', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="J16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (14, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '1', '2', '2', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (14, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '1', '2', '5', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="J17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="10">
         <v>100</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="O17" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>10</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (15, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '1', '2', '2', '5', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (15, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '1', '2', '2', '1', '2', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="O18" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (16, 'YS에코비팜 로얄젤리 21oz 675mg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001639/1000001639_main_075.jpg', 24800, '1', '2', '2', '4', '6', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (16, 'YS에코비팜 로얄젤리 21oz 675mg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001639/1000001639_main_075.jpg', 24800, '1', '2', '2', '3', '6', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
@@ -3133,11 +3133,11 @@
       </c>
       <c r="J19" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" s="10">
         <v>100</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="O19" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>10</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (17, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '2', '2', '3', '2', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (17, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '2', '2', '1', '5', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
@@ -3202,11 +3202,11 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" s="10">
         <v>100</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="O20" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>10</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (18, '솔가 에스터C 플러스 1000mg 180정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000277/1000000277_main_011.jpg', 122400, '1', '2', '2', '2', '3', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (18, '솔가 에스터C 플러스 1000mg 180정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000277/1000000277_main_011.jpg', 122400, '1', '2', '2', '4', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L21" s="10">
         <v>100</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="O21" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (19, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '1', '2', '2', '3', '3', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (19, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '1', '2', '2', '3', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
@@ -3340,11 +3340,11 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L22" s="10">
         <v>100</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="O22" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (20, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/08/22/1000000212/1000000212_main_076.jpg', 15500, '1', '2', '2', '5', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (20, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/08/22/1000000212/1000000212_main_076.jpg', 15500, '1', '2', '2', '4', '4', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L23" s="10">
         <v>100</v>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="O23" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>10</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (21, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '2', '2', '5', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (21, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '2', '2', '5', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="O24" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>10</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (22, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '1', '2', '2', '5', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (22, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '1', '2', '2', '3', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
@@ -3547,11 +3547,11 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L25" s="10">
         <v>100</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="O25" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>10</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (23, 'YS에코비팜 프로폴리스 1000 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001643/1000001643_main_028.jpg', 27400, '1', '2', '2', '4', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (23, 'YS에코비팜 프로폴리스 1000 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001643/1000001643_main_028.jpg', 27400, '1', '2', '2', '5', '7', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="O26" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (24, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '1', '2', '2', '2', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (24, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '1', '2', '2', '4', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="J27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L27" s="10">
         <v>100</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="O27" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>10</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (25, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '2', '2', '4', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (25, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '2', '2', '3', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L28" s="10">
         <v>100</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="O28" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>10</v>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (26, '나우푸드 아연 50mg 250 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 18900, '1', '2', '2', '3', '6', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (26, '나우푸드 아연 50mg 250 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 18900, '1', '2', '2', '2', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
@@ -3823,11 +3823,11 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L29" s="10">
         <v>100</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="O29" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="V29" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (27, '솔가 에스터C 플러스 500mg 비타민 C 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 19800, '1', '2', '2', '5', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (27, '솔가 에스터C 플러스 500mg 비타민 C 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 19800, '1', '2', '2', '4', '1', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="10">
         <v>100</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="O30" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>10</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (28, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '3', '2', '2', '5', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (28, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '3', '2', '4', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L31" s="10">
         <v>100</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="O31" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>10</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (29, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '3', '2', '2', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (29, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '3', '2', '4', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" s="10">
         <v>100</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O32" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>10</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="V32" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (30, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '3', '2', '3', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (30, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '3', '2', '3', '1', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
@@ -4099,11 +4099,11 @@
       </c>
       <c r="J33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33" s="10">
         <v>100</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="O33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="V33" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (31, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '3', '2', '1', '4', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (31, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '3', '2', '2', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="J34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="10">
         <v>100</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="O34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>10</v>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="V34" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (32, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', '2', '5', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (32, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', '2', '2', '2', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L35" s="10">
         <v>100</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="O35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="V35" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (33, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '3', '2', '1', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (33, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '3', '2', '1', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="O36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>10</v>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="V36" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (34, '솔가 풀 스펙트럼 커큐민 90 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 78400, '1', '3', '2', '5', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (34, '솔가 풀 스펙트럼 커큐민 90 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 78400, '1', '3', '2', '5', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="J37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37" s="10">
         <v>100</v>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="O37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>10</v>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="V37" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (35, '나우푸드 포다르코 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 21300, '1', '3', '2', '1', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (35, '나우푸드 포다르코 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 21300, '1', '3', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
@@ -4444,11 +4444,11 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L38" s="10">
         <v>100</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="O38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>10</v>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="V38" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (36, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '3', '2', '5', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (36, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '3', '2', '3', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
@@ -4513,11 +4513,11 @@
       </c>
       <c r="J39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L39" s="10">
         <v>100</v>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="O39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>10</v>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="V39" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (37, '가든오브라이프 오션스3 비욘드 오메가3 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 36400, '1', '3', '2', '4', '7', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (37, '가든오브라이프 오션스3 비욘드 오메가3 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 36400, '1', '3', '2', '3', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="K40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" s="10">
         <v>100</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>10</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="V40" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (38, '쿄릭 숙성마늘 홍국 플러스 75캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/44/1000002948/1000002948_main_051.jpg', 24800, '1', '3', '2', '1', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (38, '쿄릭 숙성마늘 홍국 플러스 75캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/44/1000002948/1000002948_main_051.jpg', 24800, '1', '3', '2', '1', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>10</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="V41" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (39, '나우푸드 커큐민 강황추출물 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000931/1000000931_main_055.jpg', 40700, '1', '3', '2', '1', '6', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (39, '나우푸드 커큐민 강황추출물 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000931/1000000931_main_055.jpg', 40700, '1', '3', '2', '2', '6', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
@@ -4720,11 +4720,11 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" s="10">
         <v>100</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="O42" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="V42" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (40, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '3', '2', '4', '2', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (40, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '3', '2', '1', '1', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
@@ -4789,11 +4789,11 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L43" s="10">
         <v>100</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="O43" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>10</v>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="V43" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (41, '블루보넷 킬레이트 마그네슘 120 식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 43800, '1', '4', '2', '1', '1', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (41, '블루보넷 킬레이트 마그네슘 120 식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 43800, '1', '4', '2', '3', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="J44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L44" s="10">
         <v>100</v>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="O44" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>10</v>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="V44" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (42, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 15500, '1', '4', '2', '5', '1', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (42, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 15500, '1', '4', '2', '4', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="K45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L45" s="10">
         <v>100</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="O45" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>10</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="V45" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (43, '네오셀 마린 콜라겐 +HA 2000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 22000, '1', '4', '2', '2', '7', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (43, '네오셀 마린 콜라겐 +HA 2000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 22000, '1', '4', '2', '2', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
@@ -4996,11 +4996,11 @@
       </c>
       <c r="J46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L46" s="10">
         <v>100</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O46" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>10</v>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="V46" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (44, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 56800, '1', '4', '2', '4', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (44, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 56800, '1', '4', '2', '2', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L47" s="10">
         <v>100</v>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O47" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="V47" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (45, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 49800, '1', '4', '2', '1', '6', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (45, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 49800, '1', '4', '2', '1', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="K48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L48" s="10">
         <v>100</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O48" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>10</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="V48" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (46, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 46800, '1', '4', '2', '2', '7', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (46, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 46800, '1', '4', '2', '2', '3', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
@@ -5203,11 +5203,11 @@
       </c>
       <c r="J49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L49" s="10">
         <v>100</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O49" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="V49" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (47, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 39800, '1', '4', '2', '1', '6', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (47, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 39800, '1', '4', '2', '4', '4', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
@@ -5272,11 +5272,11 @@
       </c>
       <c r="J50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L50" s="10">
         <v>100</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O50" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>10</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="V50" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (48, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '4', '2', '4', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (48, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '4', '2', '5', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
@@ -5341,11 +5341,11 @@
       </c>
       <c r="J51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L51" s="10">
         <v>100</v>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O51" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>10</v>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="V51" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (49, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 23800, '1', '4', '2', '4', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (49, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 23800, '1', '4', '2', '5', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
@@ -5410,11 +5410,11 @@
       </c>
       <c r="J52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" s="10">
         <v>100</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="O52" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="V52" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (50, '네이처스웨이 보스웰리아 스탠다즈 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 18600, '1', '4', '2', '5', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (50, '네이처스웨이 보스웰리아 스탠다즈 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 18600, '1', '4', '2', '1', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="J53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L53" s="10">
         <v>100</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O53" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>10</v>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="V53" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (51, '솔가 구연산 칼슘 위드 비타민 D 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 39800, '1', '4', '2', '5', '3', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (51, '솔가 구연산 칼슘 위드 비타민 D 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 39800, '1', '4', '2', '3', '6', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
@@ -5548,11 +5548,11 @@
       </c>
       <c r="J54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L54" s="10">
         <v>100</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="O54" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>10</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="V54" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (52, '솔가 구연산 칼슘 위드 비타민 D 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 21800, '1', '4', '2', '1', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (52, '솔가 구연산 칼슘 위드 비타민 D 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 21800, '1', '4', '2', '3', '2', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" s="10">
         <v>100</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="O55" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>10</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="V55" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (53, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 19800, '1', '4', '2', '3', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (53, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 19800, '1', '4', '2', '3', '4', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="J56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O56" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>10</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="V56" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (54, '네이처스웨이 칼슘 마그네슘+비타민 D 컴플렉스 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 13800, '1', '4', '2', '1', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (54, '네이처스웨이 칼슘 마그네슘+비타민 D 컴플렉스 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 13800, '1', '4', '2', '4', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="J57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L57" s="10">
         <v>100</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="O57" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>10</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="V57" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (55, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '5', '2', '3', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (55, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '5', '2', '1', '6', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
@@ -5824,11 +5824,11 @@
       </c>
       <c r="J58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L58" s="10">
         <v>100</v>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="O58" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="V58" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (56, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '5', '2', '1', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (56, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '5', '2', '3', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
@@ -5893,11 +5893,11 @@
       </c>
       <c r="J59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L59" s="10">
         <v>100</v>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O59" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="V59" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (57, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '5', '2', '4', '1', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (57, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '5', '2', '5', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
@@ -5962,11 +5962,11 @@
       </c>
       <c r="J60" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L60" s="10">
         <v>100</v>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O60" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>10</v>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="V60" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (58, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '5', '2', '1', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (58, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '5', '2', '4', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
@@ -6031,11 +6031,11 @@
       </c>
       <c r="J61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L61" s="10">
         <v>100</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="O61" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>10</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="V61" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (59, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '1', '5', '2', '1', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (59, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '1', '5', '2', '4', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
@@ -6100,11 +6100,11 @@
       </c>
       <c r="J62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L62" s="10">
         <v>100</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="O62" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="V62" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (60, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '5', '2', '5', '1', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (60, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '5', '2', '1', '6', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="K63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63" s="10">
         <v>100</v>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="O63" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>10</v>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="V63" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (61, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '5', '2', '3', '3', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (61, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '5', '2', '3', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
@@ -6238,11 +6238,11 @@
       </c>
       <c r="J64" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L64" s="10">
         <v>100</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="O64" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>10</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="V64" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (62, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '1', '5', '2', '3', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (62, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '1', '5', '2', '4', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="J65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="O65" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>10</v>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="V65" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (63, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '5', '2', '3', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (63, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '5', '2', '1', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
@@ -6376,11 +6376,11 @@
       </c>
       <c r="J66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L66" s="10">
         <v>100</v>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="V66" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (64, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '5', '2', '5', '4', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (64, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '5', '2', '1', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
@@ -6445,11 +6445,11 @@
       </c>
       <c r="J67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L67" s="10">
         <v>100</v>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="O67" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>10</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="V67" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (65, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/27//1000002157/1000002157_main_01.jpg', 26460, '1', '5', '2', '5', '4', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (65, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/27//1000002157/1000002157_main_01.jpg', 26460, '1', '5', '2', '4', '3', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
@@ -6514,11 +6514,11 @@
       </c>
       <c r="J68" s="10">
         <f t="shared" ref="J68:J131" ca="1" si="4">RANDBETWEEN(1, 5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K68" s="3">
         <f t="shared" ref="K68:K131" ca="1" si="5">RANDBETWEEN(1, 7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L68" s="10">
         <v>100</v>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="O68" s="3" t="str">
         <f t="shared" ref="O68:O131" ca="1" si="6">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>10</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="V68" s="4" t="str">
         <f t="shared" ref="V68:V131" ca="1" si="7">"INSERT INTO TB_SLE VALUES (" &amp; B68 &amp; ", '" &amp; C68 &amp; "', '"&amp; D68 &amp; "', '"&amp; E68 &amp; "', "&amp; F68 &amp; ", '"&amp; G68 &amp; "', '"&amp; H68 &amp; "', '"&amp; I68 &amp; "', '"&amp; J68 &amp; "', '"&amp; K68 &amp; "', "&amp; L68 &amp; ", '"&amp; M68 &amp; "', '"&amp; N68 &amp; "', " &amp; O68 &amp; ", " &amp; P68 &amp; ", " &amp; Q68 &amp; ", " &amp; R68 &amp; ", " &amp; S68 &amp; ", " &amp; T68 &amp; ", " &amp; U68 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (66, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '5', '2', '4', '1', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (66, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '5', '2', '1', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="K69" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L69" s="10">
         <v>100</v>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="O69" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>10</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="V69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (67, '블루보넷 레인포레스트 애니멀 Z 홀푸드 멀티비타민 180츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001922/1000001922_main_042.jpg', 32800, '1', '5', '2', '1', '1', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (67, '블루보넷 레인포레스트 애니멀 Z 홀푸드 멀티비타민 180츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001922/1000001922_main_042.jpg', 32800, '1', '5', '2', '1', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
@@ -6652,11 +6652,11 @@
       </c>
       <c r="J70" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L70" s="10">
         <v>100</v>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="O70" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>10</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="V70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (68, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '1', '6', '2', '3', '3', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (68, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '1', '6', '2', '5', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
@@ -6721,11 +6721,11 @@
       </c>
       <c r="J71" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L71" s="10">
         <v>100</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="O71" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>10</v>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="V71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (69, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '6', '2', '2', '3', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (69, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '6', '2', '1', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="K72" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L72" s="10">
         <v>100</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="O72" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="V72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (70, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '6', '2', '1', '6', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (70, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '6', '2', '1', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.3">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="K73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L73" s="10">
         <v>100</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="O73" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>10</v>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="V73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (71, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '1', '6', '2', '4', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (71, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '1', '6', '2', '4', '6', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.3">
@@ -6928,11 +6928,11 @@
       </c>
       <c r="J74" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="10">
         <v>100</v>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="O74" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>10</v>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="V74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (72, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000062/1000000062_main_034.jpg', 39600, '1', '6', '2', '4', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (72, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000062/1000000062_main_034.jpg', 39600, '1', '6', '2', '5', '1', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.3">
@@ -6997,11 +6997,11 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L75" s="10">
         <v>100</v>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="V75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (73, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '6', '2', '4', '4', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (73, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '6', '2', '2', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.3">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="K76" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L76" s="10">
         <v>100</v>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="V76" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (74, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '6', '2', '1', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (74, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '6', '2', '1', '7', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="K77" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" s="10">
         <v>100</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="V77" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (75, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '6', '2', '4', '4', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (75, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '6', '2', '4', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="J78" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="O78" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="V78" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (76, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '1', '6', '2', '4', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (76, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '1', '6', '2', '5', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
@@ -7273,11 +7273,11 @@
       </c>
       <c r="J79" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L79" s="10">
         <v>100</v>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="O79" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>10</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="V79" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (77, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '6', '2', '5', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (77, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '6', '2', '4', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.3">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="J80" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L80" s="10">
         <v>100</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O80" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>10</v>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="V80" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (78, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '6', '2', '5', '4', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (78, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '6', '2', '1', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.3">
@@ -7411,11 +7411,11 @@
       </c>
       <c r="J81" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L81" s="10">
         <v>100</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="O81" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="V81" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (79, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '1', '6', '2', '1', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (79, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '1', '6', '2', '5', '4', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.3">
@@ -7480,11 +7480,11 @@
       </c>
       <c r="J82" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K82" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82" s="10">
         <v>100</v>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="V82" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (80, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '7', '2', '4', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (80, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '7', '2', '2', '2', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.3">
@@ -7549,11 +7549,11 @@
       </c>
       <c r="J83" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K83" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L83" s="10">
         <v>100</v>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="O83" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>10</v>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="V83" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (81, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002771/1000002771_main_046.jpg', 39800, '1', '7', '2', '4', '7', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (81, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002771/1000002771_main_046.jpg', 39800, '1', '7', '2', '1', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.3">
@@ -7618,11 +7618,11 @@
       </c>
       <c r="J84" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L84" s="10">
         <v>100</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="O84" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>10</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="V84" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (82, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '7', '2', '3', '2', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (82, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '7', '2', '4', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.3">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="J85" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L85" s="10">
         <v>100</v>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="O85" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>10</v>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="V85" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (83, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '7', '2', '4', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (83, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '7', '2', '1', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.3">
@@ -7756,11 +7756,11 @@
       </c>
       <c r="J86" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L86" s="10">
         <v>100</v>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="O86" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>10</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="V86" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (84, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '7', '2', '4', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (84, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '7', '2', '2', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.3">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="J87" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K87" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="O87" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>10</v>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="V87" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (85, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '7', '2', '4', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (85, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '7', '2', '3', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.3">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="J88" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="O88" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>10</v>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="V88" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (86, '네이처스웨이 멜리사 레몬밤 리프 1500mg 100베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/07//1000002124/1000002124_main_043.jpg', 8700, '1', '7', '2', '1', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (86, '네이처스웨이 멜리사 레몬밤 리프 1500mg 100베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/07//1000002124/1000002124_main_043.jpg', 8700, '1', '7', '2', '4', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.3">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="K89" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L89" s="10">
         <v>100</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="O89" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>10</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="V89" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (87, '블루보넷 타겟 초이스 스트레스 릴리프 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001959/1000001959_main_091.jpg', 34800, '1', '7', '2', '1', '2', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (87, '블루보넷 타겟 초이스 스트레스 릴리프 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001959/1000001959_main_091.jpg', 34800, '1', '7', '2', '1', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.3">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="J90" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K90" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="O90" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>10</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="V90" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (88, '네이처스웨이 100% 코코넛 MCT 오일 474ml (16 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001975/1000001975_main_076.jpg', 22500, '1', '7', '2', '5', '4', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (88, '네이처스웨이 100% 코코넛 MCT 오일 474ml (16 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001975/1000001975_main_076.jpg', 22500, '1', '7', '2', '1', '4', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.3">
@@ -8101,11 +8101,11 @@
       </c>
       <c r="J91" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L91" s="10">
         <v>100</v>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="O91" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="V91" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (89, '나우푸드 비타민 D3 2000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002799/1000002799_main_020.jpg', 18900, '1', '7', '2', '4', '2', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (89, '나우푸드 비타민 D3 2000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002799/1000002799_main_020.jpg', 18900, '1', '7', '2', '3', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.3">
@@ -8170,11 +8170,11 @@
       </c>
       <c r="J92" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L92" s="10">
         <v>100</v>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="O92" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>10</v>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="V92" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (90, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '7', '2', '3', '4', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (90, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '7', '2', '1', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.3">
@@ -8239,11 +8239,11 @@
       </c>
       <c r="J93" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L93" s="10">
         <v>100</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="O93" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>10</v>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="V93" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (91, '나우푸드 비타민 D3 5000IU 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002800/1000002800_main_053.jpg', 13500, '1', '7', '2', '5', '1', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (91, '나우푸드 비타민 D3 5000IU 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002800/1000002800_main_053.jpg', 13500, '1', '7', '2', '1', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.3">
@@ -8308,11 +8308,11 @@
       </c>
       <c r="J94" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L94" s="10">
         <v>100</v>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="O94" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>10</v>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="V94" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (92, '나우푸드 비타민 D3 5000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002801/1000002801_main_088.jpg', 24500, '1', '7', '2', '3', '2', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (92, '나우푸드 비타민 D3 5000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002801/1000002801_main_088.jpg', 24500, '1', '7', '2', '5', '5', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.3">
@@ -8377,11 +8377,11 @@
       </c>
       <c r="J95" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K95" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L95" s="10">
         <v>100</v>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="O95" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>10</v>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="V95" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (93, '블루보넷 킬레이트 미네랄 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002761/1000002761_main_050.jpg', 32600, '1', '7', '2', '3', '3', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (93, '블루보넷 킬레이트 미네랄 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002761/1000002761_main_050.jpg', 32600, '1', '7', '2', '4', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.3">
@@ -8446,11 +8446,11 @@
       </c>
       <c r="J96" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L96" s="10">
         <v>100</v>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="O96" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>10</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="V96" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (94, '나우푸드 L-트립토판 1000mg 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg', 31500, '1', '7', '2', '4', '7', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (94, '나우푸드 L-트립토판 1000mg 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg', 31500, '1', '7', '2', '1', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.3">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="K97" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" s="10">
         <v>100</v>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="O97" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>10</v>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="V97" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (95, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '8', '2', '2', '3', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (95, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '8', '2', '2', '2', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.3">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="K98" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" s="10">
         <v>100</v>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="O98" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>10</v>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="V98" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (96, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '8', '2', '3', '1', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (96, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '8', '2', '3', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.3">
@@ -8653,11 +8653,11 @@
       </c>
       <c r="J99" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L99" s="10">
         <v>100</v>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="O99" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>10</v>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="V99" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (97, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '8', '2', '4', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (97, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '8', '2', '5', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.3">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="K100" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L100" s="10">
         <v>100</v>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="O100" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="V100" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (98, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '8', '2', '3', '7', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (98, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '8', '2', '3', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.3">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="J101" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101" s="10">
         <v>100</v>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="O101" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="V101" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (99, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '8', '2', '1', '1', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (99, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '8', '2', '3', '2', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.3">
@@ -8860,11 +8860,11 @@
       </c>
       <c r="J102" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L102" s="10">
         <v>100</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="O102" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>10</v>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="V102" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (100, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '8', '2', '2', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (100, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '8', '2', '1', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.3">
@@ -8929,11 +8929,11 @@
       </c>
       <c r="J103" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K103" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L103" s="10">
         <v>100</v>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="O103" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>10</v>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="V103" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (101, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '1', '8', '2', '5', '4', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (101, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '1', '8', '2', '2', '3', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.3">
@@ -8998,11 +8998,11 @@
       </c>
       <c r="J104" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L104" s="10">
         <v>100</v>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="V104" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (102, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '1', '8', '2', '3', '6', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (102, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '1', '8', '2', '5', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.3">
@@ -9067,11 +9067,11 @@
       </c>
       <c r="J105" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K105" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" s="10">
         <v>100</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="O105" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>10</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="V105" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (103, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '8', '2', '5', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (103, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '8', '2', '2', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.3">
@@ -9136,11 +9136,11 @@
       </c>
       <c r="J106" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K106" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L106" s="10">
         <v>100</v>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="O106" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>10</v>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="V106" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (104, '소스내추럴스 웰니스 포뮬러 허벌 디펜스 컴플렉스 240캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002773/1000002773_main_039.jpg', 48900, '1', '8', '2', '2', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (104, '소스내추럴스 웰니스 포뮬러 허벌 디펜스 컴플렉스 240캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002773/1000002773_main_039.jpg', 48900, '1', '8', '2', '5', '4', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.3">
@@ -9205,11 +9205,11 @@
       </c>
       <c r="J107" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L107" s="10">
         <v>100</v>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="O107" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>10</v>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="V107" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (105, '솔가 아세틸 L-카르니틴 250mg 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001999/1000001999_main_04.jpg', 9800, '1', '8', '2', '1', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (105, '솔가 아세틸 L-카르니틴 250mg 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001999/1000001999_main_04.jpg', 9800, '1', '8', '2', '5', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.3">
@@ -9274,11 +9274,11 @@
       </c>
       <c r="J108" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K108" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L108" s="10">
         <v>100</v>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="O108" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>10</v>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="V108" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (106, '컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000423/1000000423_main_096.jpg', 17500, '1', '8', '2', '2', '5', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (106, '컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000423/1000000423_main_096.jpg', 17500, '1', '8', '2', '4', '1', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.3">
@@ -9343,11 +9343,11 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K109" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L109" s="10">
         <v>100</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="O109" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>10</v>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="V109" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (107, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '9', '2', '3', '3', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (107, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '9', '2', '1', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.3">
@@ -9412,11 +9412,11 @@
       </c>
       <c r="J110" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L110" s="10">
         <v>100</v>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="O110" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>10</v>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="V110" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (108, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '9', '2', '3', '6', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (108, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '9', '2', '4', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.3">
@@ -9481,11 +9481,11 @@
       </c>
       <c r="J111" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K111" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" s="10">
         <v>100</v>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="O111" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>10</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="V111" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (109, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '1', '9', '2', '2', '1', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (109, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '1', '9', '2', '3', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="K112" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L112" s="10">
         <v>100</v>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="O112" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>10</v>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="V112" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (110, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '9', '2', '5', '3', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (110, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '9', '2', '5', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.3">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="K113" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L113" s="10">
         <v>100</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="O113" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>10</v>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="V113" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (111, '자로우 매스틱 검 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001981/1000001981_main_016.jpg', 24800, '1', '9', '2', '3', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (111, '자로우 매스틱 검 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001981/1000001981_main_016.jpg', 24800, '1', '9', '2', '3', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.3">
@@ -9688,11 +9688,11 @@
       </c>
       <c r="J114" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K114" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L114" s="10">
         <v>100</v>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="O114" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>10</v>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="V114" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (112, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '9', '2', '3', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (112, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '9', '2', '2', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.3">
@@ -9757,11 +9757,11 @@
       </c>
       <c r="J115" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K115" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L115" s="10">
         <v>100</v>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="O115" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>10</v>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="V115" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (113, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '9', '2', '1', '5', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (113, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '9', '2', '5', '2', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.3">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="K116" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L116" s="10">
         <v>100</v>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="O116" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>10</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="V116" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (114, '솔가 이노시톨 500mg 100 베지캡', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '9', '2', '2', '2', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (114, '솔가 이노시톨 500mg 100 베지캡', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '9', '2', '2', '6', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.3">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="J117" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K117" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L117" s="10">
         <v>100</v>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="O117" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>10</v>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="V117" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (115, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '9', '2', '4', '4', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (115, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '9', '2', '3', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.3">
@@ -9964,11 +9964,11 @@
       </c>
       <c r="J118" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K118" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L118" s="10">
         <v>100</v>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="O118" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>10</v>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="V118" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (116, '나우푸드 무취 마늘영양제 250소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000768/1000000768_main_012.jpg', 19700, '1', '9', '2', '4', '2', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (116, '나우푸드 무취 마늘영양제 250소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000768/1000000768_main_012.jpg', 19700, '1', '9', '2', '3', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.3">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="J119" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K119" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="O119" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>10</v>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="V119" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (117, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '9', '2', '4', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (117, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '9', '2', '3', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.3">
@@ -10102,11 +10102,11 @@
       </c>
       <c r="J120" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K120" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120" s="10">
         <v>100</v>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="O120" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>10</v>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="V120" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (118, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '9', '2', '3', '1', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (118, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '9', '2', '5', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.3">
@@ -10171,11 +10171,11 @@
       </c>
       <c r="J121" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L121" s="10">
         <v>100</v>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="O121" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>10</v>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V121" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (119, '네이처스웨이 켈프 600mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '9', '2', '1', '6', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (119, '네이처스웨이 켈프 600mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '9', '2', '2', '3', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.3">
@@ -10240,11 +10240,11 @@
       </c>
       <c r="J122" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K122" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L122" s="10">
         <v>100</v>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="O122" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>10</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="V122" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (120, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '2', '1', '2', '5', '5', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (120, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '2', '1', '2', '1', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="123" spans="2:22" x14ac:dyDescent="0.3">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="K123" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L123" s="10">
         <v>100</v>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="O123" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>10</v>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="V123" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (121, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '2', '1', '2', '4', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (121, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '2', '1', '2', '4', '3', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.3">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="K124" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L124" s="10">
         <v>100</v>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="O124" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>10</v>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="V124" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (122, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '2', '1', '2', '4', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (122, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '2', '1', '2', '4', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.3">
@@ -10447,11 +10447,11 @@
       </c>
       <c r="J125" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K125" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L125" s="10">
         <v>100</v>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="O125" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>10</v>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="V125" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (123, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '2', '1', '2', '3', '2', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (123, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '2', '1', '2', '2', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="126" spans="2:22" x14ac:dyDescent="0.3">
@@ -10516,11 +10516,11 @@
       </c>
       <c r="J126" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L126" s="10">
         <v>100</v>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="O126" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>10</v>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="V126" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (124, '블루보넷 폴리코사놀 20mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001918/1000001918_main_044.jpg', 24200, '2', '1', '2', '1', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (124, '블루보넷 폴리코사놀 20mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001918/1000001918_main_044.jpg', 24200, '2', '1', '2', '4', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.3">
@@ -10585,11 +10585,11 @@
       </c>
       <c r="J127" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L127" s="10">
         <v>100</v>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="O127" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>10</v>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="V127" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (125, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '2', '2', '2', '2', '3', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (125, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '2', '2', '2', '5', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.3">
@@ -10654,11 +10654,11 @@
       </c>
       <c r="J128" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L128" s="10">
         <v>100</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="O128" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>10</v>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="V128" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (126, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '2', '2', '2', '1', '1', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (126, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '2', '2', '2', '2', '4', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.3">
@@ -10723,11 +10723,11 @@
       </c>
       <c r="J129" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L129" s="10">
         <v>100</v>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="O129" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>10</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="V129" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (127, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '2', '2', '2', '4', '6', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (127, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '2', '2', '2', '3', '3', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="130" spans="2:22" x14ac:dyDescent="0.3">
@@ -10792,11 +10792,11 @@
       </c>
       <c r="J130" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K130" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L130" s="10">
         <v>100</v>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="O130" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P130" s="3" t="s">
         <v>10</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="V130" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (128, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '2', '2', '2', '1', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (128, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '2', '2', '2', '4', '5', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.3">
@@ -10861,11 +10861,11 @@
       </c>
       <c r="J131" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L131" s="10">
         <v>100</v>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="O131" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>10</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="V131" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (129, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '2', '2', '2', '2', '1', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (129, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '2', '2', '2', '1', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="K132" s="3">
         <f t="shared" ref="K132:K195" ca="1" si="9">RANDBETWEEN(1, 7)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L132" s="10">
         <v>100</v>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="O132" s="3" t="str">
         <f t="shared" ref="O132:O195" ca="1" si="10">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>10</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="V132" s="4" t="str">
         <f t="shared" ref="V132:V195" ca="1" si="11">"INSERT INTO TB_SLE VALUES (" &amp; B132 &amp; ", '" &amp; C132 &amp; "', '"&amp; D132 &amp; "', '"&amp; E132 &amp; "', "&amp; F132 &amp; ", '"&amp; G132 &amp; "', '"&amp; H132 &amp; "', '"&amp; I132 &amp; "', '"&amp; J132 &amp; "', '"&amp; K132 &amp; "', "&amp; L132 &amp; ", '"&amp; M132 &amp; "', '"&amp; N132 &amp; "', " &amp; O132 &amp; ", " &amp; P132 &amp; ", " &amp; Q132 &amp; ", " &amp; R132 &amp; ", " &amp; S132 &amp; ", " &amp; T132 &amp; ", " &amp; U132 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (130, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '2', '2', '2', '3', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (130, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '2', '2', '2', '3', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="J133" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K133" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L133" s="10">
         <v>100</v>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="O133" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>10</v>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="V133" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (131, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '2', '2', '2', '5', '1', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (131, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '2', '2', '2', '4', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.3">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="J134" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K134" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="O134" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>10</v>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="V134" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (132, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '2', '2', '5', '4', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (132, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '2', '2', '2', '4', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.3">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="K135" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L135" s="10">
         <v>100</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="O135" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>10</v>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="V135" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (133, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '2', '2', '2', '1', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (133, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '2', '2', '2', '1', '1', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.3">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="O136" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>10</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="V136" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (134, '나우푸드 넵튠 크릴오일 1,000mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002145/1000002145_main_069.jpg', 48900, '2', '2', '2', '1', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (134, '나우푸드 넵튠 크릴오일 1,000mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002145/1000002145_main_069.jpg', 48900, '2', '2', '2', '1', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.3">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="J137" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K137" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="O137" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>10</v>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="V137" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (135, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '2', '2', '2', '3', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (135, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '2', '2', '2', '4', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.3">
@@ -11344,11 +11344,11 @@
       </c>
       <c r="J138" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K138" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L138" s="10">
         <v>100</v>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="O138" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>10</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="V138" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (136, '노르딕내추럴스 얼티메이트 오메가 2X 딸기향 1120mg 60 미니 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002059/1000002059_main_067.jpg', 38200, '2', '2', '2', '1', '6', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (136, '노르딕내추럴스 얼티메이트 오메가 2X 딸기향 1120mg 60 미니 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002059/1000002059_main_067.jpg', 38200, '2', '2', '2', '2', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.3">
@@ -11413,11 +11413,11 @@
       </c>
       <c r="J139" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K139" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L139" s="10">
         <v>100</v>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="O139" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>10</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="V139" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (137, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '2', '2', '2', '4', '1', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (137, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '2', '2', '2', '3', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.3">
@@ -11482,11 +11482,11 @@
       </c>
       <c r="J140" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K140" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L140" s="10">
         <v>100</v>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="O140" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>10</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="V140" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (138, '라이프익스텐션 미오이노시톨 캡슐 1,000mg, 베지 캡슐 360정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002981/1000002981_main_063.jpg', 54800, '2', '3', '2', '4', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (138, '라이프익스텐션 미오이노시톨 캡슐 1,000mg, 베지 캡슐 360정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002981/1000002981_main_063.jpg', 54800, '2', '3', '2', '3', '4', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.3">
@@ -11551,11 +11551,11 @@
       </c>
       <c r="J141" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K141" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L141" s="10">
         <v>100</v>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="O141" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>10</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="V141" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (139, '라이프익스텐션 아테리얼 프로텍트 베지 캡슐 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002980/1000002980_main_080.jpg', 37600, '2', '3', '2', '1', '3', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (139, '라이프익스텐션 아테리얼 프로텍트 베지 캡슐 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002980/1000002980_main_080.jpg', 37600, '2', '3', '2', '5', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="142" spans="2:22" x14ac:dyDescent="0.3">
@@ -11620,11 +11620,11 @@
       </c>
       <c r="J142" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K142" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L142" s="10">
         <v>100</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="O142" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>10</v>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="V142" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (140, '솔가 크랜베리 플러스 에스터C 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/51/1000002968/1000002968_main_06.jpg', 31500, '2', '3', '2', '2', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (140, '솔가 크랜베리 플러스 에스터C 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/51/1000002968/1000002968_main_06.jpg', 31500, '2', '3', '2', '3', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="143" spans="2:22" x14ac:dyDescent="0.3">
@@ -11689,11 +11689,11 @@
       </c>
       <c r="J143" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K143" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L143" s="10">
         <v>100</v>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="O143" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>10</v>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="V143" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (141, '뉴트리콜로지 마이크로 리포소말 C 120ml (4 fl. oz.)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/50/1000002965/1000002965_main_02.jpg', 26500, '2', '3', '2', '4', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (141, '뉴트리콜로지 마이크로 리포소말 C 120ml (4 fl. oz.)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/50/1000002965/1000002965_main_02.jpg', 26500, '2', '3', '2', '5', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="144" spans="2:22" x14ac:dyDescent="0.3">
@@ -11758,11 +11758,11 @@
       </c>
       <c r="J144" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K144" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L144" s="10">
         <v>100</v>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="O144" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>10</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="V144" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (142, '소스내추럴스 MBP 본리뉴 40mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/01/02/1000003015/1000003015_main_053.jpg', 66800, '2', '3', '2', '3', '7', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (142, '소스내추럴스 MBP 본리뉴 40mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/01/02/1000003015/1000003015_main_053.jpg', 66800, '2', '3', '2', '4', '3', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.3">
@@ -11827,11 +11827,11 @@
       </c>
       <c r="J145" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K145" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L145" s="10">
         <v>100</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="O145" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>10</v>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="V145" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (143, '소스내추럴스 셀레늄 200mcg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/01/02/1000002974/1000002974_main_016.jpg', 16400, '2', '3', '2', '3', '2', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (143, '소스내추럴스 셀레늄 200mcg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/01/02/1000002974/1000002974_main_016.jpg', 16400, '2', '3', '2', '1', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="146" spans="2:22" x14ac:dyDescent="0.3">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="K146" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L146" s="10">
         <v>100</v>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="O146" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>10</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="V146" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (144, '솔가 칼슘 "600" 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002950/1000002950_main_012.jpg', 29800, '2', '3', '2', '3', '1', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (144, '솔가 칼슘 "600" 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002950/1000002950_main_012.jpg', 29800, '2', '3', '2', '3', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="147" spans="2:22" x14ac:dyDescent="0.3">
@@ -11965,11 +11965,11 @@
       </c>
       <c r="J147" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K147" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L147" s="10">
         <v>100</v>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="O147" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>10</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="V147" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (145, '솔가 칼슘 "600" 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002949/1000002949_main_035.jpg', 15800, '2', '3', '2', '2', '6', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (145, '솔가 칼슘 "600" 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002949/1000002949_main_035.jpg', 15800, '2', '3', '2', '5', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.3">
@@ -12034,11 +12034,11 @@
       </c>
       <c r="J148" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K148" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L148" s="10">
         <v>100</v>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="O148" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>10</v>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="V148" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (146, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/10/41/1000002935/1000002935_main_037.jpg', 19800, '2', '3', '2', '1', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (146, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/10/41/1000002935/1000002935_main_037.jpg', 19800, '2', '3', '2', '5', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.3">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="J149" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K149" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L149" s="10">
         <v>100</v>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="O149" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>10</v>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="V149" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (147, '블루보넷 버퍼드 비타민C-1000mg 180캐플릿', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/37/1000002929/1000002929_main_095.jpg', 37000, '2', '3', '2', '2', '6', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (147, '블루보넷 버퍼드 비타민C-1000mg 180캐플릿', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/37/1000002929/1000002929_main_095.jpg', 37000, '2', '3', '2', '1', '4', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.3">
@@ -12172,11 +12172,11 @@
       </c>
       <c r="J150" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K150" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L150" s="10">
         <v>100</v>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="O150" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P150" s="3" t="s">
         <v>10</v>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="V150" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (148, '라이프익스텐션 비건 비타민D3 5000IU 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002928/1000002928_main_041.jpg', 17800, '2', '3', '2', '1', '3', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (148, '라이프익스텐션 비건 비타민D3 5000IU 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002928/1000002928_main_041.jpg', 17800, '2', '3', '2', '2', '2', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="151" spans="2:22" x14ac:dyDescent="0.3">
@@ -12241,11 +12241,11 @@
       </c>
       <c r="J151" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K151" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L151" s="10">
         <v>100</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="O151" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P151" s="3" t="s">
         <v>10</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="V151" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (149, '라이프익스텐션 알리포산 R리포산 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/10/43/1000002994/1000002994_main_030.jpg', 36500, '2', '3', '2', '5', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (149, '라이프익스텐션 알리포산 R리포산 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/10/43/1000002994/1000002994_main_030.jpg', 36500, '2', '3', '2', '4', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="152" spans="2:22" x14ac:dyDescent="0.3">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="K152" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L152" s="10">
         <v>100</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="O152" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>10</v>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="V152" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (150, '라이프익스텐션 알파리포산 위드 비오틴 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg', 29800, '2', '3', '2', '3', '1', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (150, '라이프익스텐션 알파리포산 위드 비오틴 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg', 29800, '2', '3', '2', '3', '5', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="153" spans="2:22" x14ac:dyDescent="0.3">
@@ -12379,11 +12379,11 @@
       </c>
       <c r="J153" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K153" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L153" s="10">
         <v>100</v>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="O153" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P153" s="3" t="s">
         <v>10</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="V153" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (151, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '2', '4', '2', '3', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (151, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '2', '4', '2', '1', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.3">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="K154" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L154" s="10">
         <v>100</v>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="O154" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P154" s="3" t="s">
         <v>10</v>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="V154" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (152, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '2', '4', '2', '5', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (152, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '2', '4', '2', '5', '6', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.3">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="K155" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L155" s="10">
         <v>100</v>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="O155" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P155" s="3" t="s">
         <v>10</v>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="V155" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (153, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '2', '4', '2', '4', '1', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (153, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '2', '4', '2', '4', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="156" spans="2:22" x14ac:dyDescent="0.3">
@@ -12586,11 +12586,11 @@
       </c>
       <c r="J156" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K156" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L156" s="10">
         <v>100</v>
@@ -12603,7 +12603,7 @@
       </c>
       <c r="O156" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P156" s="3" t="s">
         <v>10</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="V156" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (154, '자로우 얌얌 도필러스 10억 유산균 라즈베리향 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000222/1000000222_main_031.jpg', 18000, '2', '4', '2', '4', '3', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (154, '자로우 얌얌 도필러스 10억 유산균 라즈베리향 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000222/1000000222_main_031.jpg', 18000, '2', '4', '2', '2', '2', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="157" spans="2:22" x14ac:dyDescent="0.3">
@@ -12655,11 +12655,11 @@
       </c>
       <c r="J157" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K157" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L157" s="10">
         <v>100</v>
@@ -12672,7 +12672,7 @@
       </c>
       <c r="O157" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P157" s="3" t="s">
         <v>10</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="V157" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (155, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '2', '4', '2', '5', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (155, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '2', '4', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="158" spans="2:22" x14ac:dyDescent="0.3">
@@ -12724,11 +12724,11 @@
       </c>
       <c r="J158" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K158" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L158" s="10">
         <v>100</v>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="O158" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P158" s="3" t="s">
         <v>10</v>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="V158" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (156, '자로우 펨 도필러스 60 캡슐 상온보관용', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg', 31200, '2', '4', '2', '1', '3', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (156, '자로우 펨 도필러스 60 캡슐 상온보관용', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg', 31200, '2', '4', '2', '4', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="159" spans="2:22" x14ac:dyDescent="0.3">
@@ -12793,11 +12793,11 @@
       </c>
       <c r="J159" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K159" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L159" s="10">
         <v>100</v>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="O159" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>10</v>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="V159" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (157, '자로우 프리바이오틱스 XOS+GOS 90츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/28/1000001966/1000001966_main_054.jpg', 23800, '2', '4', '2', '4', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (157, '자로우 프리바이오틱스 XOS+GOS 90츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/28/1000001966/1000001966_main_054.jpg', 23800, '2', '4', '2', '1', '6', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="160" spans="2:22" x14ac:dyDescent="0.3">
@@ -12862,11 +12862,11 @@
       </c>
       <c r="J160" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K160" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L160" s="10">
         <v>100</v>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="O160" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P160" s="3" t="s">
         <v>10</v>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="V160" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (158, '가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg', 68500, '2', '4', '2', '4', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (158, '가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg', 68500, '2', '4', '2', '3', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="161" spans="2:22" x14ac:dyDescent="0.3">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="K161" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L161" s="10">
         <v>100</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="O161" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>10</v>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="V161" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (159, '네이처스웨이 프리마도필러스 키즈 오렌지맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000053/1000000053_main_033.jpg', 16400, '2', '4', '2', '3', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (159, '네이처스웨이 프리마도필러스 키즈 오렌지맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000053/1000000053_main_033.jpg', 16400, '2', '4', '2', '3', '2', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="162" spans="2:22" x14ac:dyDescent="0.3">
@@ -13000,11 +13000,11 @@
       </c>
       <c r="J162" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K162" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L162" s="10">
         <v>100</v>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="O162" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P162" s="3" t="s">
         <v>10</v>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="V162" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (160, '네이처스웨이 프리마도필러스 키즈 체리맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000082/1000000082_main_074.jpg', 15000, '2', '4', '2', '4', '4', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (160, '네이처스웨이 프리마도필러스 키즈 체리맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000082/1000000082_main_074.jpg', 15000, '2', '4', '2', '1', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.3">
@@ -13069,11 +13069,11 @@
       </c>
       <c r="J163" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K163" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L163" s="10">
         <v>100</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="O163" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>10</v>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="V163" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (161, '가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg', 38200, '2', '4', '2', '1', '5', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (161, '가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg', 38200, '2', '4', '2', '4', '4', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="164" spans="2:22" x14ac:dyDescent="0.3">
@@ -13138,11 +13138,11 @@
       </c>
       <c r="J164" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K164" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L164" s="10">
         <v>100</v>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="O164" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>10</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="V164" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (162, '블루보넷 레인포레스트 애니멀 Z 유산균 라즈베리 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg', 20300, '2', '4', '2', '2', '3', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (162, '블루보넷 레인포레스트 애니멀 Z 유산균 라즈베리 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg', 20300, '2', '4', '2', '5', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="165" spans="2:22" x14ac:dyDescent="0.3">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="J165" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K165" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="O165" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>10</v>
@@ -13246,7 +13246,7 @@
       </c>
       <c r="V165" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (163, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000548/1000000548_main_027.jpg', 56800, '2', '5', '2', '4', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (163, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000548/1000000548_main_027.jpg', 56800, '2', '5', '2', '2', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="166" spans="2:22" x14ac:dyDescent="0.3">
@@ -13276,11 +13276,11 @@
       </c>
       <c r="J166" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K166" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L166" s="10">
         <v>100</v>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="O166" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P166" s="3" t="s">
         <v>10</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="V166" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (164, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000183/1000000183_main_031.jpg', 49800, '2', '5', '2', '3', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (164, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000183/1000000183_main_031.jpg', 49800, '2', '5', '2', '1', '5', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="167" spans="2:22" x14ac:dyDescent="0.3">
@@ -13345,11 +13345,11 @@
       </c>
       <c r="J167" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K167" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L167" s="10">
         <v>100</v>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="O167" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P167" s="3" t="s">
         <v>10</v>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="V167" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (165, '솔가 스킨 네일 헤어 어드밴스드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg', 31800, '2', '5', '2', '4', '7', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (165, '솔가 스킨 네일 헤어 어드밴스드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg', 31800, '2', '5', '2', '1', '2', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="168" spans="2:22" x14ac:dyDescent="0.3">
@@ -13414,11 +13414,11 @@
       </c>
       <c r="J168" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L168" s="10">
         <v>100</v>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="O168" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P168" s="3" t="s">
         <v>10</v>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="V168" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (166, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000341/1000000341_main_082.jpg', 23800, '2', '5', '2', '2', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (166, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000341/1000000341_main_082.jpg', 23800, '2', '5', '2', '1', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="169" spans="2:22" x14ac:dyDescent="0.3">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="J169" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K169" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="O169" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P169" s="3" t="s">
         <v>10</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="V169" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (167, '솔가 L 글루타치온 250mg 60 베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000550/1000000550_main_031.jpg', 46800, '2', '5', '2', '5', '4', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (167, '솔가 L 글루타치온 250mg 60 베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000550/1000000550_main_031.jpg', 46800, '2', '5', '2', '3', '4', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="170" spans="2:22" x14ac:dyDescent="0.3">
@@ -13552,11 +13552,11 @@
       </c>
       <c r="J170" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K170" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L170" s="10">
         <v>100</v>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="O170" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>10</v>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="V170" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (168, '나우푸드 MSM 1000mg 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000757/1000000757_main_044.jpg', 21200, '2', '5', '2', '1', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (168, '나우푸드 MSM 1000mg 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000757/1000000757_main_044.jpg', 21200, '2', '5', '2', '3', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="171" spans="2:22" x14ac:dyDescent="0.3">
@@ -13621,11 +13621,11 @@
       </c>
       <c r="J171" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K171" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L171" s="10">
         <v>100</v>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="O171" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P171" s="3" t="s">
         <v>10</v>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="V171" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (169, '컨트리라이프 글루코사민 콘드로이친 포뮬러 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000391/1000000391_main_073.jpg', 35900, '2', '5', '2', '5', '6', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (169, '컨트리라이프 글루코사민 콘드로이친 포뮬러 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000391/1000000391_main_073.jpg', 35900, '2', '5', '2', '2', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="172" spans="2:22" x14ac:dyDescent="0.3">
@@ -13690,11 +13690,11 @@
       </c>
       <c r="J172" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K172" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L172" s="10">
         <v>100</v>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="O172" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>10</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="V172" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (170, '나우푸드 글루코사민 &amp; MSM 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000903/1000000903_main_010.jpg', 32600, '2', '5', '2', '4', '5', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (170, '나우푸드 글루코사민 &amp; MSM 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000903/1000000903_main_010.jpg', 32600, '2', '5', '2', '5', '6', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="173" spans="2:22" x14ac:dyDescent="0.3">
@@ -13759,11 +13759,11 @@
       </c>
       <c r="J173" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K173" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L173" s="10">
         <v>100</v>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="O173" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P173" s="3" t="s">
         <v>10</v>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="V173" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (171, '소스내추럴스 글루코사민 콘드로이친 컴플렉스 위드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001214/1000001214_main_095.jpg', 34800, '2', '5', '2', '5', '7', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (171, '소스내추럴스 글루코사민 콘드로이친 컴플렉스 위드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001214/1000001214_main_095.jpg', 34800, '2', '5', '2', '3', '4', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="174" spans="2:22" x14ac:dyDescent="0.3">
@@ -13828,11 +13828,11 @@
       </c>
       <c r="J174" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K174" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L174" s="10">
         <v>100</v>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="O174" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P174" s="3" t="s">
         <v>10</v>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="V174" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (172, '나우푸드 MSM 1500mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002864/1000002864_main_088.jpg', 28900, '2', '5', '2', '5', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (172, '나우푸드 MSM 1500mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002864/1000002864_main_088.jpg', 28900, '2', '5', '2', '3', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="175" spans="2:22" x14ac:dyDescent="0.3">
@@ -13897,11 +13897,11 @@
       </c>
       <c r="J175" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K175" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L175" s="10">
         <v>100</v>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="O175" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P175" s="3" t="s">
         <v>10</v>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="V175" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (173, '나우푸드 글루코사민 콘드로이친 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg', 37000, '2', '5', '2', '1', '4', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (173, '나우푸드 글루코사민 콘드로이친 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg', 37000, '2', '5', '2', '5', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="176" spans="2:22" x14ac:dyDescent="0.3">
@@ -13970,7 +13970,7 @@
       </c>
       <c r="K176" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L176" s="10">
         <v>100</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O176" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P176" s="3" t="s">
         <v>10</v>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="V176" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (174, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '2', '6', '2', '3', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (174, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '2', '6', '2', '3', '6', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.3">
@@ -14035,11 +14035,11 @@
       </c>
       <c r="J177" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K177" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L177" s="10">
         <v>100</v>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="O177" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P177" s="3" t="s">
         <v>10</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="V177" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (175, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '2', '6', '2', '5', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (175, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '2', '6', '2', '4', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.3">
@@ -14101,11 +14101,11 @@
       </c>
       <c r="J178" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K178" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L178" s="10">
         <v>100</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="O178" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P178" s="3" t="s">
         <v>10</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="V178" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (176, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', '', 39600, '2', '6', '2', '2', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (176, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', '', 39600, '2', '6', '2', '5', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.3">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="K179" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L179" s="10">
         <v>100</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="O179" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P179" s="3" t="s">
         <v>10</v>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="V179" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (177, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '2', '6', '2', '2', '1', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (177, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '2', '6', '2', '2', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.3">
@@ -14239,11 +14239,11 @@
       </c>
       <c r="J180" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K180" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L180" s="10">
         <v>100</v>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="O180" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P180" s="3" t="s">
         <v>10</v>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="V180" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (178, '자로우 루테인 20mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001159/1000001159_main_054.jpg', 16740, '2', '6', '2', '5', '1', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (178, '자로우 루테인 20mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001159/1000001159_main_054.jpg', 16740, '2', '6', '2', '1', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.3">
@@ -14308,11 +14308,11 @@
       </c>
       <c r="J181" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K181" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L181" s="10">
         <v>100</v>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="O181" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P181" s="3" t="s">
         <v>10</v>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="V181" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (179, '나우푸드 루테인 지아잔틴 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002840/1000002840_main_091.jpg', 24800, '2', '6', '2', '1', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (179, '나우푸드 루테인 지아잔틴 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002840/1000002840_main_091.jpg', 24800, '2', '6', '2', '5', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.3">
@@ -14377,11 +14377,11 @@
       </c>
       <c r="J182" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K182" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L182" s="10">
         <v>100</v>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="O182" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P182" s="3" t="s">
         <v>10</v>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="V182" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (180, '노르딕내추럴스 오메가 비전 1460mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002162/1000002162_main_0100.jpg', 49500, '2', '6', '2', '5', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (180, '노르딕내추럴스 오메가 비전 1460mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002162/1000002162_main_0100.jpg', 49500, '2', '6', '2', '2', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.3">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="O183" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P183" s="3" t="s">
         <v>10</v>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="V183" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (181, '컨트리라이프 루테인 20mg 60소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000424/1000000424_main_046.jpg', 29900, '2', '6', '2', '4', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (181, '컨트리라이프 루테인 20mg 60소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000424/1000000424_main_046.jpg', 29900, '2', '6', '2', '4', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.3">
@@ -14515,11 +14515,11 @@
       </c>
       <c r="J184" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K184" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L184" s="10">
         <v>100</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="O184" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P184" s="3" t="s">
         <v>10</v>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="V184" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (182, '솔가 루테인 20mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002144/1000002144_main_035.jpg', 29500, '2', '6', '2', '5', '3', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (182, '솔가 루테인 20mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002144/1000002144_main_035.jpg', 29500, '2', '6', '2', '1', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.3">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="J185" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K185" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="O185" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P185" s="3" t="s">
         <v>10</v>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="V185" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (183, '자로우 블랙커런트&amp;루테인 복합제, 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001163/1000001163_main_057.jpg', 27900, '2', '6', '2', '5', '7', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (183, '자로우 블랙커런트&amp;루테인 복합제, 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001163/1000001163_main_057.jpg', 27900, '2', '6', '2', '4', '7', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.3">
@@ -14653,11 +14653,11 @@
       </c>
       <c r="J186" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K186" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L186" s="10">
         <v>100</v>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O186" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P186" s="3" t="s">
         <v>10</v>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="V186" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (184, '나우푸드 루테인 10mg 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001208/1000001208_main_086.jpg', 22000, '2', '6', '2', '1', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (184, '나우푸드 루테인 10mg 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001208/1000001208_main_086.jpg', 22000, '2', '6', '2', '5', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.3">
@@ -14722,11 +14722,11 @@
       </c>
       <c r="J187" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K187" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L187" s="10">
         <v>100</v>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="O187" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P187" s="3" t="s">
         <v>10</v>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="V187" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (185, '[유통기한임박상품] 솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003049/1000000538_main_085.jpg', 15930, '2', '6', '2', '2', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (185, '[유통기한임박상품] 솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003049/1000000538_main_085.jpg', 15930, '2', '6', '2', '3', '4', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.3">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="J188" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K188" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L188" s="10">
         <v>100</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="O188" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P188" s="3" t="s">
         <v>10</v>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="V188" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (186, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '2', '7', '2', '5', '2', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (186, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '2', '7', '2', '3', '1', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.3">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="K189" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L189" s="10">
         <v>100</v>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="O189" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P189" s="3" t="s">
         <v>10</v>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="V189" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (187, '솔가 메가솔브 코큐텐 100mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000866/1000000866_main_062.png', 31500, '2', '7', '2', '1', '1', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (187, '솔가 메가솔브 코큐텐 100mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000866/1000000866_main_062.png', 31500, '2', '7', '2', '1', '4', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.3">
@@ -14929,11 +14929,11 @@
       </c>
       <c r="J190" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K190" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L190" s="10">
         <v>100</v>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="O190" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P190" s="3" t="s">
         <v>10</v>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="V190" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (188, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '7', '2', '5', '5', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (188, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '7', '2', '4', '6', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.3">
@@ -14998,7 +14998,7 @@
       </c>
       <c r="J191" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="O191" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P191" s="3" t="s">
         <v>10</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="V191" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (189, '나우푸드 코큐텐 코엔자임 200mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000927/1000000927_main_095.jpg', 33400, '2', '7', '2', '2', '6', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (189, '나우푸드 코큐텐 코엔자임 200mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000927/1000000927_main_095.jpg', 33400, '2', '7', '2', '1', '6', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.3">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="K192" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L192" s="10">
         <v>100</v>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="O192" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P192" s="3" t="s">
         <v>10</v>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="V192" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (190, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '7', '2', '4', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (190, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '7', '2', '4', '3', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.3">
@@ -15136,11 +15136,11 @@
       </c>
       <c r="J193" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K193" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L193" s="10">
         <v>100</v>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="O193" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P193" s="3" t="s">
         <v>10</v>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="V193" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (191, '블루보넷 코큐텐 200mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001914/1000001914_main_047.jpg', 43600, '2', '7', '2', '4', '6', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (191, '블루보넷 코큐텐 200mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001914/1000001914_main_047.jpg', 43600, '2', '7', '2', '1', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.3">
@@ -15205,11 +15205,11 @@
       </c>
       <c r="J194" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K194" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L194" s="10">
         <v>100</v>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="O194" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P194" s="3" t="s">
         <v>10</v>
@@ -15244,7 +15244,7 @@
       </c>
       <c r="V194" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (192, '가든오브라이프 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000120/1000000120_main_065.jpg', 62400, '2', '7', '2', '4', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (192, '가든오브라이프 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000120/1000000120_main_065.jpg', 62400, '2', '7', '2', '2', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.3">
@@ -15274,11 +15274,11 @@
       </c>
       <c r="J195" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K195" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L195" s="10">
         <v>100</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="O195" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P195" s="3" t="s">
         <v>10</v>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="V195" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (193, '컨트리라이프 코큐텐 100mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000413/1000000413_main_059.jpg', 35800, '2', '7', '2', '4', '7', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (193, '컨트리라이프 코큐텐 100mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000413/1000000413_main_059.jpg', 35800, '2', '7', '2', '3', '3', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.3">
@@ -15343,11 +15343,11 @@
       </c>
       <c r="J196" s="10">
         <f t="shared" ref="J196:J257" ca="1" si="12">RANDBETWEEN(1, 5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K196" s="3">
         <f t="shared" ref="K196:K257" ca="1" si="13">RANDBETWEEN(1, 7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L196" s="10">
         <v>100</v>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="V196" s="4" t="str">
         <f t="shared" ref="V196:V257" ca="1" si="15">"INSERT INTO TB_SLE VALUES (" &amp; B196 &amp; ", '" &amp; C196 &amp; "', '"&amp; D196 &amp; "', '"&amp; E196 &amp; "', "&amp; F196 &amp; ", '"&amp; G196 &amp; "', '"&amp; H196 &amp; "', '"&amp; I196 &amp; "', '"&amp; J196 &amp; "', '"&amp; K196 &amp; "', "&amp; L196 &amp; ", '"&amp; M196 &amp; "', '"&amp; N196 &amp; "', " &amp; O196 &amp; ", " &amp; P196 &amp; ", " &amp; Q196 &amp; ", " &amp; R196 &amp; ", " &amp; S196 &amp; ", " &amp; T196 &amp; ", " &amp; U196 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (194, '나우푸드 코큐텐 60mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000917/1000000917_main_034.jpg', 34200, '2', '7', '2', '4', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (194, '나우푸드 코큐텐 60mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000917/1000000917_main_034.jpg', 34200, '2', '7', '2', '2', '2', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="197" spans="2:22" x14ac:dyDescent="0.3">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="K197" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L197" s="10">
         <v>100</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="O197" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P197" s="3" t="s">
         <v>10</v>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="V197" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (195, '컨트리라이프 코큐텐 100mg 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000412/1000000412_main_049.jpg', 21500, '2', '7', '2', '1', '7', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (195, '컨트리라이프 코큐텐 100mg 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000412/1000000412_main_049.jpg', 21500, '2', '7', '2', '1', '2', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="198" spans="2:22" x14ac:dyDescent="0.3">
@@ -15481,11 +15481,11 @@
       </c>
       <c r="J198" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K198" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L198" s="10">
         <v>100</v>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="O198" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P198" s="3" t="s">
         <v>10</v>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="V198" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (196, '어메이징포뮬라 베르베린 1000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/48/1000003006/1000003006_main_02.jpg', 37500, '2', '7', '2', '4', '2', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (196, '어메이징포뮬라 베르베린 1000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/48/1000003006/1000003006_main_02.jpg', 37500, '2', '7', '2', '3', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="199" spans="2:22" x14ac:dyDescent="0.3">
@@ -15550,11 +15550,11 @@
       </c>
       <c r="J199" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K199" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L199" s="10">
         <v>100</v>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="O199" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P199" s="3" t="s">
         <v>10</v>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="V199" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (197, '나우푸드 코큐텐 100mg 호손베리 함유 180베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000932/1000000932_main_053.jpg', 50500, '2', '7', '2', '2', '3', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (197, '나우푸드 코큐텐 100mg 호손베리 함유 180베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000932/1000000932_main_053.jpg', 50500, '2', '7', '2', '4', '2', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.3">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="J200" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K200" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -15636,7 +15636,7 @@
       </c>
       <c r="O200" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P200" s="3" t="s">
         <v>10</v>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="V200" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (198, '솔가 유비퀴놀 100mg 50소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002884/1000002884_main_032.jpg', 31000, '2', '7', '2', '2', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (198, '솔가 유비퀴놀 100mg 50소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002884/1000002884_main_032.jpg', 31000, '2', '7', '2', '4', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.3">
@@ -15688,11 +15688,11 @@
       </c>
       <c r="J201" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K201" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L201" s="10">
         <v>100</v>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="O201" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P201" s="3" t="s">
         <v>10</v>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="V201" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (199, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '2', '8', '2', '2', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (199, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '2', '8', '2', '1', '4', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="202" spans="2:22" x14ac:dyDescent="0.3">
@@ -15757,11 +15757,11 @@
       </c>
       <c r="J202" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K202" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L202" s="10">
         <v>100</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="O202" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P202" s="3" t="s">
         <v>10</v>
@@ -15796,7 +15796,7 @@
       </c>
       <c r="V202" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (200, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '2', '8', '2', '3', '5', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (200, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '2', '8', '2', '5', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="203" spans="2:22" x14ac:dyDescent="0.3">
@@ -15826,11 +15826,11 @@
       </c>
       <c r="J203" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K203" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L203" s="10">
         <v>100</v>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="O203" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P203" s="3" t="s">
         <v>10</v>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="V203" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (201, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '2', '8', '2', '5', '1', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (201, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '2', '8', '2', '4', '5', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="204" spans="2:22" x14ac:dyDescent="0.3">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="J204" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K204" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L204" s="10">
         <v>100</v>
@@ -15912,7 +15912,7 @@
       </c>
       <c r="O204" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P204" s="3" t="s">
         <v>10</v>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="V204" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (202, '솔가 L-아르기닌 1,000mg 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '2', '8', '2', '1', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (202, '솔가 L-아르기닌 1,000mg 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '2', '8', '2', '5', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="205" spans="2:22" x14ac:dyDescent="0.3">
@@ -15964,11 +15964,11 @@
       </c>
       <c r="J205" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K205" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L205" s="10">
         <v>100</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="O205" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P205" s="3" t="s">
         <v>10</v>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="V205" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (203, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '2', '8', '2', '1', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (203, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '2', '8', '2', '4', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="206" spans="2:22" x14ac:dyDescent="0.3">
@@ -16033,11 +16033,11 @@
       </c>
       <c r="J206" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K206" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L206" s="10">
         <v>100</v>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="O206" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P206" s="3" t="s">
         <v>10</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="V206" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (204, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '8', '2', '4', '3', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (204, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '8', '2', '3', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="207" spans="2:22" x14ac:dyDescent="0.3">
@@ -16102,11 +16102,11 @@
       </c>
       <c r="J207" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K207" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L207" s="10">
         <v>100</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="O207" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P207" s="3" t="s">
         <v>10</v>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="V207" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (205, '소스내추럴스 L-아르기닌 프리폼 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001218/1000001218_main_02.jpg', 19800, '2', '8', '2', '4', '1', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (205, '소스내추럴스 L-아르기닌 프리폼 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001218/1000001218_main_02.jpg', 19800, '2', '8', '2', '2', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="208" spans="2:22" x14ac:dyDescent="0.3">
@@ -16171,11 +16171,11 @@
       </c>
       <c r="J208" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K208" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L208" s="10">
         <v>100</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="O208" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P208" s="3" t="s">
         <v>10</v>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="V208" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (206, '나우푸드 L-아르기닌 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001206/1000001206_main_065.jpg', 22500, '2', '8', '2', '2', '2', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (206, '나우푸드 L-아르기닌 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001206/1000001206_main_065.jpg', 22500, '2', '8', '2', '4', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="209" spans="2:22" x14ac:dyDescent="0.3">
@@ -16240,11 +16240,11 @@
       </c>
       <c r="J209" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K209" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L209" s="10">
         <v>100</v>
@@ -16257,7 +16257,7 @@
       </c>
       <c r="O209" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P209" s="3" t="s">
         <v>10</v>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="V209" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (207, '컨트리라이프 L 아르기닌 500mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000377/1000000377_main_011.jpg', 18800, '2', '8', '2', '1', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (207, '컨트리라이프 L 아르기닌 500mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000377/1000000377_main_011.jpg', 18800, '2', '8', '2', '5', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="210" spans="2:22" x14ac:dyDescent="0.3">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="K210" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L210" s="10">
         <v>100</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="O210" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P210" s="3" t="s">
         <v>10</v>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="V210" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (208, '닥터스베스트 서방형 아르기닌 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002926/1000002926_main_091.jpg', 29800, '2', '8', '2', '3', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (208, '닥터스베스트 서방형 아르기닌 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002926/1000002926_main_091.jpg', 29800, '2', '8', '2', '3', '6', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="211" spans="2:22" x14ac:dyDescent="0.3">
@@ -16382,7 +16382,7 @@
       </c>
       <c r="K211" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L211" s="10">
         <v>100</v>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O211" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P211" s="3" t="s">
         <v>10</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="V211" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (209, '소스내추럴 아르기닌 100정+ 마카 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/01/04/1000002187/1000002187_main_023.jpg', 30900, '2', '8', '2', '3', '3', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (209, '소스내추럴 아르기닌 100정+ 마카 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/01/04/1000002187/1000002187_main_023.jpg', 30900, '2', '8', '2', '3', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="212" spans="2:22" x14ac:dyDescent="0.3">
@@ -16447,7 +16447,7 @@
       </c>
       <c r="J212" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K212" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -16464,7 +16464,7 @@
       </c>
       <c r="O212" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P212" s="3" t="s">
         <v>10</v>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="V212" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (210, '닥터스베스트 니트로시진 아르기닌 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002927/1000002927_main_060.jpg', 39600, '2', '8', '2', '2', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (210, '닥터스베스트 니트로시진 아르기닌 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002927/1000002927_main_060.jpg', 39600, '2', '8', '2', '3', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="213" spans="2:22" x14ac:dyDescent="0.3">
@@ -16516,11 +16516,11 @@
       </c>
       <c r="J213" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K213" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L213" s="10">
         <v>100</v>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="O213" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P213" s="3" t="s">
         <v>10</v>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="V213" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (211, '컨트리라이프 맥스 아미노 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000382/1432780653362s0.jpg', 19900, '2', '8', '2', '5', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (211, '컨트리라이프 맥스 아미노 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000382/1432780653362s0.jpg', 19900, '2', '8', '2', '3', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="214" spans="2:22" x14ac:dyDescent="0.3">
@@ -16585,11 +16585,11 @@
       </c>
       <c r="J214" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K214" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L214" s="10">
         <v>100</v>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="O214" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P214" s="3" t="s">
         <v>10</v>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="V214" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (212, '1+1나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/05/22/1000001939/1000001939_main_056.jpg', 32900, '2', '8', '2', '5', '5', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (212, '1+1나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/05/22/1000001939/1000001939_main_056.jpg', 32900, '2', '8', '2', '2', '6', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="215" spans="2:22" x14ac:dyDescent="0.3">
@@ -16654,11 +16654,11 @@
       </c>
       <c r="J215" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K215" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L215" s="10">
         <v>100</v>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="O215" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P215" s="3" t="s">
         <v>10</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="V215" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (213, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '2', '9', '2', '1', '2', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (213, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '2', '9', '2', '3', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="216" spans="2:22" x14ac:dyDescent="0.3">
@@ -16723,11 +16723,11 @@
       </c>
       <c r="J216" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K216" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L216" s="10">
         <v>100</v>
@@ -16740,7 +16740,7 @@
       </c>
       <c r="O216" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P216" s="3" t="s">
         <v>10</v>
@@ -16762,7 +16762,7 @@
       </c>
       <c r="V216" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (214, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '2', '9', '2', '3', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (214, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '2', '9', '2', '2', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="217" spans="2:22" x14ac:dyDescent="0.3">
@@ -16792,11 +16792,11 @@
       </c>
       <c r="J217" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K217" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L217" s="10">
         <v>100</v>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="O217" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P217" s="3" t="s">
         <v>10</v>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="V217" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (215, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '2', '9', '2', '2', '2', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (215, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '2', '9', '2', '4', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="218" spans="2:22" x14ac:dyDescent="0.3">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="K218" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L218" s="10">
         <v>100</v>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="O218" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P218" s="3" t="s">
         <v>10</v>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="V218" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (216, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '2', '9', '2', '5', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (216, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '2', '9', '2', '5', '5', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="219" spans="2:22" x14ac:dyDescent="0.3">
@@ -16930,11 +16930,11 @@
       </c>
       <c r="J219" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K219" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L219" s="10">
         <v>100</v>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="O219" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P219" s="3" t="s">
         <v>10</v>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="V219" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (217, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '2', '9', '2', '3', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (217, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '2', '9', '2', '5', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="220" spans="2:22" x14ac:dyDescent="0.3">
@@ -16999,11 +16999,11 @@
       </c>
       <c r="J220" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K220" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L220" s="10">
         <v>100</v>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="O220" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P220" s="3" t="s">
         <v>10</v>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="V220" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (218, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '2', '9', '2', '1', '7', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (218, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '2', '9', '2', '4', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="221" spans="2:22" x14ac:dyDescent="0.3">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="O221" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P221" s="3" t="s">
         <v>10</v>
@@ -17107,7 +17107,7 @@
       </c>
       <c r="V221" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (219, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '2', '9', '2', '1', '6', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (219, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '2', '9', '2', '1', '6', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="222" spans="2:22" x14ac:dyDescent="0.3">
@@ -17137,11 +17137,11 @@
       </c>
       <c r="J222" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K222" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L222" s="10">
         <v>100</v>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="O222" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P222" s="3" t="s">
         <v>10</v>
@@ -17176,7 +17176,7 @@
       </c>
       <c r="V222" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (220, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '2', '9', '2', '3', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (220, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '2', '9', '2', '5', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="223" spans="2:22" x14ac:dyDescent="0.3">
@@ -17206,11 +17206,11 @@
       </c>
       <c r="J223" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K223" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L223" s="10">
         <v>100</v>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="O223" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P223" s="3" t="s">
         <v>10</v>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="V223" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (221, '라이프익스텐션 어드밴스드 밀크씨슬 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002807/1000002807_main_022.jpg', 35600, '2', '9', '2', '4', '5', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (221, '라이프익스텐션 어드밴스드 밀크씨슬 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002807/1000002807_main_022.jpg', 35600, '2', '9', '2', '3', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="224" spans="2:22" x14ac:dyDescent="0.3">
@@ -17275,11 +17275,11 @@
       </c>
       <c r="J224" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K224" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L224" s="10">
         <v>100</v>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="O224" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P224" s="3" t="s">
         <v>10</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="V224" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (222, '네이처스웨이 밀크씨슬 120캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '2', '9', '2', '3', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (222, '네이처스웨이 밀크씨슬 120캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '2', '9', '2', '2', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="225" spans="2:22" x14ac:dyDescent="0.3">
@@ -17344,11 +17344,11 @@
       </c>
       <c r="J225" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K225" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L225" s="10">
         <v>100</v>
@@ -17361,7 +17361,7 @@
       </c>
       <c r="O225" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P225" s="3" t="s">
         <v>10</v>
@@ -17383,7 +17383,7 @@
       </c>
       <c r="V225" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (223, '자로우 밀크씨슬 150mg 200캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/03/1000002765/1000002765_main_058.jpg', 27900, '2', '9', '2', '1', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (223, '자로우 밀크씨슬 150mg 200캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/03/1000002765/1000002765_main_058.jpg', 27900, '2', '9', '2', '2', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="226" spans="2:22" x14ac:dyDescent="0.3">
@@ -17413,11 +17413,11 @@
       </c>
       <c r="J226" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K226" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L226" s="10">
         <v>100</v>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="O226" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P226" s="3" t="s">
         <v>10</v>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="V226" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (224, '솔가 밀크씨슬 250 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001411/1000001411_main_086.jpg', 146400, '2', '9', '2', '4', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (224, '솔가 밀크씨슬 250 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001411/1000001411_main_086.jpg', 146400, '2', '9', '2', '1', '6', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="227" spans="2:22" x14ac:dyDescent="0.3">
@@ -17482,7 +17482,7 @@
       </c>
       <c r="J227" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K227" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="O227" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P227" s="3" t="s">
         <v>10</v>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="V227" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (225, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '3', '1', '2', '3', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (225, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '3', '1', '2', '4', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="228" spans="2:22" x14ac:dyDescent="0.3">
@@ -17551,11 +17551,11 @@
       </c>
       <c r="J228" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K228" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L228" s="10">
         <v>100</v>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="O228" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P228" s="3" t="s">
         <v>10</v>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="V228" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (226, '네이처스웨이 얼라이브 원스 데일리 남성 멀티비타민 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000085/1000000085_main_017.jpg', 24800, '3', '1', '2', '2', '5', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (226, '네이처스웨이 얼라이브 원스 데일리 남성 멀티비타민 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000085/1000000085_main_017.jpg', 24800, '3', '1', '2', '3', '3', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="229" spans="2:22" x14ac:dyDescent="0.3">
@@ -17620,11 +17620,11 @@
       </c>
       <c r="J229" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K229" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L229" s="10">
         <v>100</v>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="O229" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P229" s="3" t="s">
         <v>10</v>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="V229" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (227, '솔가 맥주효모 7 1,2 그레인 위드 비타민 B12 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/03/03/1000000350/1000000350_main_047.jpg', 19800, '3', '1', '2', '2', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (227, '솔가 맥주효모 7 1,2 그레인 위드 비타민 B12 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/03/03/1000000350/1000000350_main_047.jpg', 19800, '3', '1', '2', '1', '3', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="230" spans="2:22" x14ac:dyDescent="0.3">
@@ -17689,11 +17689,11 @@
       </c>
       <c r="J230" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K230" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L230" s="10">
         <v>100</v>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="O230" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P230" s="3" t="s">
         <v>10</v>
@@ -17728,7 +17728,7 @@
       </c>
       <c r="V230" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (228, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '3', '1', '2', '3', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (228, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '3', '1', '2', '2', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="231" spans="2:22" x14ac:dyDescent="0.3">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="J231" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K231" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="O231" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P231" s="3" t="s">
         <v>10</v>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="V231" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (229, '네이처스웨이 얼라이브 맥스3 멀티비타민 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg', 49600, '3', '1', '2', '1', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (229, '네이처스웨이 얼라이브 맥스3 멀티비타민 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg', 49600, '3', '1', '2', '2', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="232" spans="2:22" x14ac:dyDescent="0.3">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="K232" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L232" s="10">
         <v>100</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="O232" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P232" s="3" t="s">
         <v>10</v>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="V232" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (230, '네이처스웨이 얼라이브 남성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000084/1000000084_main_058.jpg', 27500, '3', '1', '2', '3', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (230, '네이처스웨이 얼라이브 남성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000084/1000000084_main_058.jpg', 27500, '3', '1', '2', '3', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="233" spans="2:22" x14ac:dyDescent="0.3">
@@ -17896,11 +17896,11 @@
       </c>
       <c r="J233" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K233" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L233" s="10">
         <v>100</v>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="O233" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P233" s="3" t="s">
         <v>10</v>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="V233" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (231, '솔가 비타민B 컴플렉스 100mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000529/1000000529_main_032.jpg', 23500, '3', '1', '2', '2', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (231, '솔가 비타민B 컴플렉스 100mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000529/1000000529_main_032.jpg', 23500, '3', '1', '2', '3', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="234" spans="2:22" x14ac:dyDescent="0.3">
@@ -17965,11 +17965,11 @@
       </c>
       <c r="J234" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K234" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L234" s="10">
         <v>100</v>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="O234" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P234" s="3" t="s">
         <v>10</v>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="V234" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (232, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '1', '2', '1', '1', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (232, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '1', '2', '3', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="235" spans="2:22" x14ac:dyDescent="0.3">
@@ -18034,7 +18034,7 @@
       </c>
       <c r="J235" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K235" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="O235" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P235" s="3" t="s">
         <v>10</v>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="V235" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (233, '솔가 맥주효모+비오틴 5000mcg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg', 39600, '3', '1', '2', '5', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (233, '솔가 맥주효모+비오틴 5000mcg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg', 39600, '3', '1', '2', '2', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="236" spans="2:22" x14ac:dyDescent="0.3">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="J236" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K236" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L236" s="10">
         <v>100</v>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="O236" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P236" s="3" t="s">
         <v>10</v>
@@ -18142,7 +18142,7 @@
       </c>
       <c r="V236" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (234, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '3', '1', '2', '3', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (234, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '3', '1', '2', '2', '2', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="237" spans="2:22" x14ac:dyDescent="0.3">
@@ -18172,11 +18172,11 @@
       </c>
       <c r="J237" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K237" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L237" s="10">
         <v>100</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="O237" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P237" s="3" t="s">
         <v>10</v>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="V237" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (235, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '3', '1', '2', '4', '7', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (235, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '3', '1', '2', '3', '1', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="238" spans="2:22" x14ac:dyDescent="0.3">
@@ -18241,11 +18241,11 @@
       </c>
       <c r="J238" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K238" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L238" s="10">
         <v>100</v>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="O238" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P238" s="3" t="s">
         <v>10</v>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="V238" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (236, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '3', '1', '2', '5', '6', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (236, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '3', '1', '2', '2', '3', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="239" spans="2:22" x14ac:dyDescent="0.3">
@@ -18310,11 +18310,11 @@
       </c>
       <c r="J239" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K239" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L239" s="10">
         <v>100</v>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="O239" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P239" s="3" t="s">
         <v>10</v>
@@ -18349,7 +18349,7 @@
       </c>
       <c r="V239" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (237, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '3', '1', '2', '1', '7', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (237, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '3', '1', '2', '4', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="240" spans="2:22" x14ac:dyDescent="0.3">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="K240" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L240" s="10">
         <v>100</v>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="O240" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P240" s="3" t="s">
         <v>10</v>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="V240" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (238, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '3', '1', '2', '5', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (238, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '3', '1', '2', '5', '1', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="241" spans="2:22" x14ac:dyDescent="0.3">
@@ -18448,11 +18448,11 @@
       </c>
       <c r="J241" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K241" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L241" s="10">
         <v>100</v>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="O241" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P241" s="3" t="s">
         <v>10</v>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="V241" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (239, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '3', '1', '2', '5', '4', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (239, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '3', '1', '2', '3', '3', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="242" spans="2:22" x14ac:dyDescent="0.3">
@@ -18517,11 +18517,11 @@
       </c>
       <c r="J242" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K242" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L242" s="10">
         <v>100</v>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="O242" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P242" s="3" t="s">
         <v>10</v>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="V242" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (240, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '3', '1', '2', '3', '4', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (240, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '3', '1', '2', '5', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="243" spans="2:22" x14ac:dyDescent="0.3">
@@ -18590,7 +18590,7 @@
       </c>
       <c r="K243" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L243" s="10">
         <v>100</v>
@@ -18603,7 +18603,7 @@
       </c>
       <c r="O243" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P243" s="3" t="s">
         <v>10</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="V243" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (241, '네이처스웨이 얼라이브 여성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/01/22/1000000305/1000000305_main_075.jpg', 31800, '3', '2', '2', '5', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (241, '네이처스웨이 얼라이브 여성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/01/22/1000000305/1000000305_main_075.jpg', 31800, '3', '2', '2', '5', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="244" spans="2:22" x14ac:dyDescent="0.3">
@@ -18655,11 +18655,11 @@
       </c>
       <c r="J244" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K244" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L244" s="10">
         <v>100</v>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="O244" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P244" s="3" t="s">
         <v>10</v>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="V244" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (242, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '2', '2', '1', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (242, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '2', '2', '3', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="245" spans="2:22" x14ac:dyDescent="0.3">
@@ -18728,7 +18728,7 @@
       </c>
       <c r="K245" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L245" s="10">
         <v>100</v>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="O245" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P245" s="3" t="s">
         <v>10</v>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="V245" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (243, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '3', '2', '2', '5', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (243, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '3', '2', '2', '5', '1', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="246" spans="2:22" x14ac:dyDescent="0.3">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="K246" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L246" s="10">
         <v>100</v>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="O246" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P246" s="3" t="s">
         <v>10</v>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="V246" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (244, '나우푸드 맥주효모 650mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002138/1000002138_main_02.jpg', 12400, '3', '2', '2', '5', '2', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (244, '나우푸드 맥주효모 650mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002138/1000002138_main_02.jpg', 12400, '3', '2', '2', '5', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="247" spans="2:22" x14ac:dyDescent="0.3">
@@ -18859,11 +18859,11 @@
       </c>
       <c r="J247" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K247" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L247" s="10">
         <v>100</v>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="O247" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P247" s="3" t="s">
         <v>10</v>
@@ -18898,7 +18898,7 @@
       </c>
       <c r="V247" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (245, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', '', 26460, '3', '2', '2', '4', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (245, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', '', 26460, '3', '2', '2', '5', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="248" spans="2:22" x14ac:dyDescent="0.3">
@@ -18928,11 +18928,11 @@
       </c>
       <c r="J248" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K248" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L248" s="10">
         <v>100</v>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="O248" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P248" s="3" t="s">
         <v>10</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="V248" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (246, '네이처스웨이 비타민 C 1000 위드 로즈힙 250캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000340/1000000340_main_023.jpg', 33200, '3', '2', '2', '3', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (246, '네이처스웨이 비타민 C 1000 위드 로즈힙 250캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000340/1000000340_main_023.jpg', 33200, '3', '2', '2', '5', '5', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="249" spans="2:22" x14ac:dyDescent="0.3">
@@ -18997,11 +18997,11 @@
       </c>
       <c r="J249" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K249" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L249" s="10">
         <v>100</v>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="V249" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (247, '메가푸드 우먼스 원 데일리 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000145/1000000145_main_063.jpg', 49700, '3', '2', '2', '4', '5', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (247, '메가푸드 우먼스 원 데일리 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000145/1000000145_main_063.jpg', 49700, '3', '2', '2', '3', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="250" spans="2:22" x14ac:dyDescent="0.3">
@@ -19066,11 +19066,11 @@
       </c>
       <c r="J250" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K250" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L250" s="10">
         <v>100</v>
@@ -19105,7 +19105,7 @@
       </c>
       <c r="V250" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (248, '가든오브라이프 비타민코드 철분 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/15/1000000584/1000000584_main_073.jpg', 25000, '3', '2', '2', '1', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (248, '가든오브라이프 비타민코드 철분 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/15/1000000584/1000000584_main_073.jpg', 25000, '3', '2', '2', '5', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="251" spans="2:22" x14ac:dyDescent="0.3">
@@ -19135,11 +19135,11 @@
       </c>
       <c r="J251" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K251" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L251" s="10">
         <v>100</v>
@@ -19152,7 +19152,7 @@
       </c>
       <c r="O251" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P251" s="3" t="s">
         <v>10</v>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="V251" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (249, '컨트리라이프 맥시C 컴플렉스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/02/1000000432/1000000432_main_095.jpg', 29900, '3', '2', '2', '2', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (249, '컨트리라이프 맥시C 컴플렉스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/02/1000000432/1000000432_main_095.jpg', 29900, '3', '2', '2', '1', '5', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="252" spans="2:22" x14ac:dyDescent="0.3">
@@ -19204,11 +19204,11 @@
       </c>
       <c r="J252" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K252" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L252" s="10">
         <v>100</v>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="O252" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P252" s="3" t="s">
         <v>10</v>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="V252" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (250, '솔가 비타민 C 1000mg 위드 로즈힙 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000184/1000000184_main_022.jpg', 14300, '3', '2', '2', '2', '1', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (250, '솔가 비타민 C 1000mg 위드 로즈힙 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000184/1000000184_main_022.jpg', 14300, '3', '2', '2', '1', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="253" spans="2:22" x14ac:dyDescent="0.3">
@@ -19273,11 +19273,11 @@
       </c>
       <c r="J253" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K253" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L253" s="10">
         <v>100</v>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="V253" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (251, '네이처스웨이 얼라이브 멀티비타민 여성 + 남성 90정 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/12/52/1000002186/1000002186_main_080.jpg', 55000, '3', '2', '2', '4', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (251, '네이처스웨이 얼라이브 멀티비타민 여성 + 남성 90정 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/12/52/1000002186/1000002186_main_080.jpg', 55000, '3', '2', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="254" spans="2:22" x14ac:dyDescent="0.3">
@@ -19342,11 +19342,11 @@
       </c>
       <c r="J254" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K254" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L254" s="10">
         <v>100</v>
@@ -19359,7 +19359,7 @@
       </c>
       <c r="O254" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P254" s="3" t="s">
         <v>10</v>
@@ -19381,7 +19381,7 @@
       </c>
       <c r="V254" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (252, '레인보우라이트 우먼즈+맨즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/11/46/1000002731/1000002731_main_072.jpg', 58200, '3', '2', '2', '1', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (252, '레인보우라이트 우먼즈+맨즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/11/46/1000002731/1000002731_main_072.jpg', 58200, '3', '2', '2', '5', '4', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="255" spans="2:22" x14ac:dyDescent="0.3">
@@ -19411,11 +19411,11 @@
       </c>
       <c r="J255" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K255" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L255" s="10">
         <v>100</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="O255" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P255" s="3" t="s">
         <v>10</v>
@@ -19450,7 +19450,7 @@
       </c>
       <c r="V255" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (253, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '3', '2', '2', '1', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (253, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '3', '2', '2', '3', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="256" spans="2:22" x14ac:dyDescent="0.3">
@@ -19484,7 +19484,7 @@
       </c>
       <c r="K256" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L256" s="10">
         <v>100</v>
@@ -19497,7 +19497,7 @@
       </c>
       <c r="O256" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P256" s="3" t="s">
         <v>10</v>
@@ -19519,7 +19519,7 @@
       </c>
       <c r="V256" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (254, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '3', '2', '2', '5', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (254, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '3', '2', '2', '5', '3', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="257" spans="2:22" x14ac:dyDescent="0.3">
@@ -19549,11 +19549,11 @@
       </c>
       <c r="J257" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K257" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L257" s="10">
         <v>100</v>
@@ -19566,7 +19566,7 @@
       </c>
       <c r="O257" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P257" s="3" t="s">
         <v>10</v>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="V257" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (255, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '3', '2', '2', '2', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (255, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '3', '2', '2', '5', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="258" spans="2:22" x14ac:dyDescent="0.3">

--- a/resource/40.design/440.development/[Saturn]449.DB_insert.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.DB_insert.xlsx
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V257"/>
+    <sheetView tabSelected="1" topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2029,11 +2029,11 @@
       </c>
       <c r="J3" s="10">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3">
         <f ca="1">RANDBETWEEN(1, 7)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="10">
         <v>100</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="O3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>10</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="V3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", '" &amp; C3 &amp; "', '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', "&amp; F3 &amp; ", '"&amp; G3 &amp; "', '"&amp; H3 &amp; "', '"&amp; I3 &amp; "', '"&amp; J3 &amp; "', '"&amp; K3 &amp; "', "&amp; L3 &amp; ", '"&amp; M3 &amp; "', '"&amp; N3 &amp; "', " &amp; O3 &amp; ", " &amp; P3 &amp; ", " &amp; Q3 &amp; ", " &amp; R3 &amp; ", " &amp; S3 &amp; ", " &amp; T3 &amp; ", " &amp; U3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (1, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '1', '2', '5', '4', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (1, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '1', '2', '2', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K67" ca="1" si="1">RANDBETWEEN(1, 7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="10">
         <v>100</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="O4" s="3" t="str">
         <f t="shared" ref="O4:O67" ca="1" si="2">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>10</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="V4" s="4" t="str">
         <f t="shared" ref="V4:V67" ca="1" si="3">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", '" &amp; C4 &amp; "', '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', "&amp; F4 &amp; ", '"&amp; G4 &amp; "', '"&amp; H4 &amp; "', '"&amp; I4 &amp; "', '"&amp; J4 &amp; "', '"&amp; K4 &amp; "', "&amp; L4 &amp; ", '"&amp; M4 &amp; "', '"&amp; N4 &amp; "', " &amp; O4 &amp; ", " &amp; P4 &amp; ", " &amp; Q4 &amp; ", " &amp; R4 &amp; ", " &amp; S4 &amp; ", " &amp; T4 &amp; ", " &amp; U4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (2, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '1', '1', '2', '5', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (2, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '1', '1', '2', '5', '2', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="O5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>10</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="V5" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (3, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '1', '1', '2', '2', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (3, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '1', '1', '2', '1', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -2236,11 +2236,11 @@
       </c>
       <c r="J6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="10">
         <v>100</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>10</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (4, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02&amp;/16/1000001077/1000001077_main_076.jpg', 116400, '1', '1', '2', '2', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (4, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02&amp;/16/1000001077/1000001077_main_076.jpg', 116400, '1', '1', '2', '5', '3', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -2305,11 +2305,11 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" s="10">
         <v>100</v>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="O7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>10</v>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (5, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '1', '1', '2', '1', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (5, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '1', '1', '2', '4', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="10">
         <v>100</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>10</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (6, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '1', '2', '5', '4', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (6, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '1', '2', '3', '6', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -2443,11 +2443,11 @@
       </c>
       <c r="J9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L9" s="10">
         <v>100</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="O9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (7, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '1', '1', '2', '1', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (7, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '1', '1', '2', '5', '6', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="10">
         <v>100</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>10</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (8, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '1', '2', '5', '4', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (8, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '1', '2', '5', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="O11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>10</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (9, '솔가 달맞이꽃 오일 500mg 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000335/1000000335_main_08.jpg', 17400, '1', '1', '2', '4', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (9, '솔가 달맞이꽃 오일 500mg 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000335/1000000335_main_08.jpg', 17400, '1', '1', '2', '1', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="J12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="O12" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>10</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (10, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '1', '2', '4', '5', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (10, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '1', '2', '2', '5', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="J13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L13" s="10">
         <v>100</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="O13" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>10</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (11, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '1', '2', '2', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (11, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '1', '2', '4', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -2788,11 +2788,11 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="10">
         <v>100</v>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="O14" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (12, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '1', '2', '5', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (12, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230616/100846_113304.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '1', '2', '4', '3', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -2857,11 +2857,11 @@
       </c>
       <c r="J15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="10">
         <v>100</v>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="O15" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (13, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '1', '1', '2', '5', '3', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (13, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132644.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '1', '1', '2', '1', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
@@ -2926,11 +2926,11 @@
       </c>
       <c r="J16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="10">
         <v>100</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="O16" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>10</v>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (14, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '1', '2', '5', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (14, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230407/100132_144528.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '1', '2', '3', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="J17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="10">
         <v>100</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="O17" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>10</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (15, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '1', '2', '2', '1', '2', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (15, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '1', '2', '2', '4', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L18" s="10">
         <v>100</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="O18" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (16, 'YS에코비팜 로얄젤리 21oz 675mg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001639/1000001639_main_075.jpg', 24800, '1', '2', '2', '3', '6', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (16, 'YS에코비팜 로얄젤리 21oz 675mg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001639/1000001639_main_075.jpg', 24800, '1', '2', '2', '1', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19" s="10">
         <v>100</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="O19" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>10</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (17, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '2', '2', '1', '5', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (17, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '1', '2', '2', '1', '4', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
@@ -3202,11 +3202,11 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="10">
         <v>100</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="O20" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>10</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (18, '솔가 에스터C 플러스 1000mg 180정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000277/1000000277_main_011.jpg', 122400, '1', '2', '2', '4', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (18, '솔가 에스터C 플러스 1000mg 180정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000277/1000000277_main_011.jpg', 122400, '1', '2', '2', '2', '3', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="J21" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L21" s="10">
         <v>100</v>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="O21" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="V21" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (19, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '1', '2', '2', '3', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (19, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '1', '2', '2', '5', '7', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="O22" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="V22" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (20, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/08/22/1000000212/1000000212_main_076.jpg', 15500, '1', '2', '2', '4', '4', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (20, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/08/22/1000000212/1000000212_main_076.jpg', 15500, '1', '2', '2', '2', '4', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="10">
         <v>100</v>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="O23" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>10</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="V23" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (21, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '2', '2', '5', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (21, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '2', '2', '5', '3', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" s="10">
         <v>100</v>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="O24" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>10</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (22, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '1', '2', '2', '3', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (22, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '1', '2', '2', '3', '5', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
@@ -3547,11 +3547,11 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L25" s="10">
         <v>100</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="O25" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>10</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="V25" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (23, 'YS에코비팜 프로폴리스 1000 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001643/1000001643_main_028.jpg', 27400, '1', '2', '2', '5', '7', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (23, 'YS에코비팜 프로폴리스 1000 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/07/13/1000001643/1000001643_main_028.jpg', 27400, '1', '2', '2', '1', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="O26" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (24, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '1', '2', '2', '4', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (24, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '1', '2', '2', '5', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" s="10">
         <v>100</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (25, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '2', '2', '3', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (25, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '2', '2', '3', '3', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="O28" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>10</v>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (26, '나우푸드 아연 50mg 250 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 18900, '1', '2', '2', '2', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (26, '나우푸드 아연 50mg 250 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 18900, '1', '2', '2', '5', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
@@ -3823,11 +3823,11 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="10">
         <v>100</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="O29" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="V29" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (27, '솔가 에스터C 플러스 500mg 비타민 C 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 19800, '1', '2', '2', '4', '1', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (27, '솔가 에스터C 플러스 500mg 비타민 C 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101738_155049.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 19800, '1', '2', '2', '5', '2', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30" s="10">
         <v>100</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="O30" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>10</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (28, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '3', '2', '4', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (28, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '3', '2', '1', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31" s="10">
         <v>100</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="O31" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>10</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (29, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '3', '2', '4', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (29, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '3', '2', '1', '4', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L32" s="10">
         <v>100</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O32" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>10</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="V32" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (30, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '3', '2', '3', '1', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (30, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '3', '2', '3', '5', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
@@ -4099,11 +4099,11 @@
       </c>
       <c r="J33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33" s="10">
         <v>100</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="O33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="V33" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (31, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '3', '2', '2', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (31, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '3', '2', '4', '3', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="J34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="10">
         <v>100</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="O34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>10</v>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="V34" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (32, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', '2', '2', '2', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (32, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', '2', '4', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
@@ -4237,11 +4237,11 @@
       </c>
       <c r="J35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L35" s="10">
         <v>100</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="O35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="V35" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (33, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '3', '2', '1', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (33, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '3', '2', '5', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
@@ -4306,11 +4306,11 @@
       </c>
       <c r="J36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L36" s="10">
         <v>100</v>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="O36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>10</v>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="V36" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (34, '솔가 풀 스펙트럼 커큐민 90 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 78400, '1', '3', '2', '5', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (34, '솔가 풀 스펙트럼 커큐민 90 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 78400, '1', '3', '2', '2', '3', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
@@ -4375,11 +4375,11 @@
       </c>
       <c r="J37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L37" s="10">
         <v>100</v>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="O37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>10</v>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="V37" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (35, '나우푸드 포다르코 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 21300, '1', '3', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (35, '나우푸드 포다르코 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 21300, '1', '3', '2', '1', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L38" s="10">
         <v>100</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="O38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>10</v>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="V38" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (36, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '3', '2', '3', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (36, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '3', '2', '3', '6', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
@@ -4513,11 +4513,11 @@
       </c>
       <c r="J39" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L39" s="10">
         <v>100</v>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="O39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>10</v>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="V39" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (37, '가든오브라이프 오션스3 비욘드 오메가3 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 36400, '1', '3', '2', '3', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (37, '가든오브라이프 오션스3 비욘드 오메가3 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 36400, '1', '3', '2', '4', '7', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
@@ -4582,11 +4582,11 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L40" s="10">
         <v>100</v>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="O40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>10</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="V40" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (38, '쿄릭 숙성마늘 홍국 플러스 75캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/44/1000002948/1000002948_main_051.jpg', 24800, '1', '3', '2', '1', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (38, '쿄릭 숙성마늘 홍국 플러스 75캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100185_113151.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/44/1000002948/1000002948_main_051.jpg', 24800, '1', '3', '2', '4', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
@@ -4651,11 +4651,11 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41" s="10">
         <v>100</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="O41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>10</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="V41" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (39, '나우푸드 커큐민 강황추출물 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000931/1000000931_main_055.jpg', 40700, '1', '3', '2', '2', '6', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (39, '나우푸드 커큐민 강황추출물 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230214/102507_135123.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000931/1000000931_main_055.jpg', 40700, '1', '3', '2', '3', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
@@ -4720,11 +4720,11 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L42" s="10">
         <v>100</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="O42" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>10</v>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="V42" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (40, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '3', '2', '1', '1', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (40, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101259_153516.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '3', '2', '4', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="O43" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>10</v>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="V43" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (41, '블루보넷 킬레이트 마그네슘 120 식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 43800, '1', '4', '2', '3', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (41, '블루보넷 킬레이트 마그네슘 120 식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000754/1000000754_main_048.jpg', 43800, '1', '4', '2', '4', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="K44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" s="10">
         <v>100</v>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="O44" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>10</v>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="V44" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (42, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 15500, '1', '4', '2', '4', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (42, '솔가 비타민D 1000IU 250소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000518/1000000518_main_071.jpg', 15500, '1', '4', '2', '4', '4', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
@@ -4927,11 +4927,11 @@
       </c>
       <c r="J45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" s="10">
         <v>100</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="O45" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>10</v>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="V45" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (43, '네오셀 마린 콜라겐 +HA 2000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 22000, '1', '4', '2', '2', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (43, '네오셀 마린 콜라겐 +HA 2000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 22000, '1', '4', '2', '1', '4', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
@@ -4996,11 +4996,11 @@
       </c>
       <c r="J46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L46" s="10">
         <v>100</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="O46" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>10</v>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="V46" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (44, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 56800, '1', '4', '2', '2', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (44, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 56800, '1', '4', '2', '1', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
@@ -5065,11 +5065,11 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L47" s="10">
         <v>100</v>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O47" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="V47" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (45, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 49800, '1', '4', '2', '1', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (45, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 49800, '1', '4', '2', '5', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
@@ -5134,11 +5134,11 @@
       </c>
       <c r="J48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L48" s="10">
         <v>100</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O48" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>10</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="V48" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (46, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 46800, '1', '4', '2', '2', '3', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (46, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 46800, '1', '4', '2', '4', '5', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
@@ -5203,11 +5203,11 @@
       </c>
       <c r="J49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49" s="10">
         <v>100</v>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O49" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>10</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="V49" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (47, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 39800, '1', '4', '2', '4', '4', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (47, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 39800, '1', '4', '2', '5', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="J50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O50" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>10</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="V50" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (48, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '4', '2', '5', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (48, '소스내추럴스 보스웰리아 추출물 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001212/1000001212_main_096.jpg', 19300, '1', '4', '2', '4', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
@@ -5341,11 +5341,11 @@
       </c>
       <c r="J51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L51" s="10">
         <v>100</v>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O51" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>10</v>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="V51" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (49, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 23800, '1', '4', '2', '5', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (49, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/03/29/1000001131/1000001131_main_060.jpg', 23800, '1', '4', '2', '3', '7', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="O52" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>10</v>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="V52" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (50, '네이처스웨이 보스웰리아 스탠다즈 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 18600, '1', '4', '2', '1', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (50, '네이처스웨이 보스웰리아 스탠다즈 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 18600, '1', '4', '2', '5', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="J53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L53" s="10">
         <v>100</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O53" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>10</v>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="V53" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (51, '솔가 구연산 칼슘 위드 비타민 D 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 39800, '1', '4', '2', '3', '6', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (51, '솔가 구연산 칼슘 위드 비타민 D 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 39800, '1', '4', '2', '1', '7', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
@@ -5548,11 +5548,11 @@
       </c>
       <c r="J54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L54" s="10">
         <v>100</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="O54" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>10</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="V54" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (52, '솔가 구연산 칼슘 위드 비타민 D 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 21800, '1', '4', '2', '3', '2', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (52, '솔가 구연산 칼슘 위드 비타민 D 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211006/102156_163902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000114/1000000114_main_017.jpg', 21800, '1', '4', '2', '5', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L55" s="10">
         <v>100</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="O55" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>10</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="V55" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (53, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 19800, '1', '4', '2', '3', '4', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (53, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100528_172502.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002061/1000002061_main_08.jpg', 19800, '1', '4', '2', '3', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
@@ -5686,11 +5686,11 @@
       </c>
       <c r="J56" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L56" s="10">
         <v>100</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O56" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>10</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="V56" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (54, '네이처스웨이 칼슘 마그네슘+비타민 D 컴플렉스 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 13800, '1', '4', '2', '4', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (54, '네이처스웨이 칼슘 마그네슘+비타민 D 컴플렉스 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 13800, '1', '4', '2', '2', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="J57" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L57" s="10">
         <v>100</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="O57" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>10</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="V57" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (55, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '5', '2', '1', '6', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (55, '솔가 에스터C 플러스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/19/1000000168/1000000168_main_049.jpg', 40800, '1', '5', '2', '2', '3', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
@@ -5824,11 +5824,11 @@
       </c>
       <c r="J58" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="10">
         <v>100</v>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="O58" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="V58" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (56, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '5', '2', '3', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (56, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '5', '2', '1', '2', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
@@ -5893,11 +5893,11 @@
       </c>
       <c r="J59" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L59" s="10">
         <v>100</v>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O59" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="V59" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (57, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '5', '2', '5', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (57, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '5', '2', '1', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="K60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L60" s="10">
         <v>100</v>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O60" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>10</v>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="V60" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (58, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '5', '2', '4', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (58, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '5', '2', '4', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="J61" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="O61" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>10</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="V61" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (59, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '1', '5', '2', '4', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (59, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '1', '5', '2', '3', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
@@ -6100,11 +6100,11 @@
       </c>
       <c r="J62" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L62" s="10">
         <v>100</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="O62" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="V62" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (60, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '5', '2', '1', '6', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (60, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '5', '2', '3', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
@@ -6169,11 +6169,11 @@
       </c>
       <c r="J63" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L63" s="10">
         <v>100</v>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="O63" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>10</v>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="V63" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (61, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '5', '2', '3', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (61, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '5', '2', '4', '6', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="O64" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>10</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="V64" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (62, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '1', '5', '2', '4', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (62, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '1', '5', '2', '4', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="J65" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L65" s="10">
         <v>100</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="O65" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>10</v>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="V65" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (63, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '5', '2', '1', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (63, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '5', '2', '3', '6', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
@@ -6376,11 +6376,11 @@
       </c>
       <c r="J66" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L66" s="10">
         <v>100</v>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="O66" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>10</v>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="V66" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (64, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '5', '2', '1', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (64, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '5', '2', '5', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="J67" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K67" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="O67" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>10</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="V67" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (65, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/27//1000002157/1000002157_main_01.jpg', 26460, '1', '5', '2', '4', '3', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (65, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231109/102073_144242.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/27//1000002157/1000002157_main_01.jpg', 26460, '1', '5', '2', '2', '3', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="K68" s="3">
         <f t="shared" ref="K68:K131" ca="1" si="5">RANDBETWEEN(1, 7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L68" s="10">
         <v>100</v>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="O68" s="3" t="str">
         <f t="shared" ref="O68:O131" ca="1" si="6">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>10</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="V68" s="4" t="str">
         <f t="shared" ref="V68:V131" ca="1" si="7">"INSERT INTO TB_SLE VALUES (" &amp; B68 &amp; ", '" &amp; C68 &amp; "', '"&amp; D68 &amp; "', '"&amp; E68 &amp; "', "&amp; F68 &amp; ", '"&amp; G68 &amp; "', '"&amp; H68 &amp; "', '"&amp; I68 &amp; "', '"&amp; J68 &amp; "', '"&amp; K68 &amp; "', "&amp; L68 &amp; ", '"&amp; M68 &amp; "', '"&amp; N68 &amp; "', " &amp; O68 &amp; ", " &amp; P68 &amp; ", " &amp; Q68 &amp; ", " &amp; R68 &amp; ", " &amp; S68 &amp; ", " &amp; T68 &amp; ", " &amp; U68 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (66, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '5', '2', '1', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (66, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101869_160826.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '5', '2', '1', '1', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
@@ -6583,11 +6583,11 @@
       </c>
       <c r="J69" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K69" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L69" s="10">
         <v>100</v>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="O69" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>10</v>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="V69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (67, '블루보넷 레인포레스트 애니멀 Z 홀푸드 멀티비타민 180츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001922/1000001922_main_042.jpg', 32800, '1', '5', '2', '1', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (67, '블루보넷 레인포레스트 애니멀 Z 홀푸드 멀티비타민 180츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100197_132521.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001922/1000001922_main_042.jpg', 32800, '1', '5', '2', '5', '4', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="K70" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L70" s="10">
         <v>100</v>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="O70" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>10</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="V70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (68, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '1', '6', '2', '5', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (68, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '1', '6', '2', '5', '2', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
@@ -6721,11 +6721,11 @@
       </c>
       <c r="J71" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K71" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L71" s="10">
         <v>100</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="O71" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>10</v>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="V71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (69, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '6', '2', '1', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (69, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '6', '2', '5', '3', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
@@ -6790,11 +6790,11 @@
       </c>
       <c r="J72" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L72" s="10">
         <v>100</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="O72" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="V72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (70, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '6', '2', '1', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (70, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '6', '2', '2', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.3">
@@ -6859,11 +6859,11 @@
       </c>
       <c r="J73" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L73" s="10">
         <v>100</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="O73" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>10</v>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="V73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (71, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '1', '6', '2', '4', '6', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (71, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '1', '6', '2', '3', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.3">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="K74" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L74" s="10">
         <v>100</v>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="V74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (72, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000062/1000000062_main_034.jpg', 39600, '1', '6', '2', '5', '1', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (72, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000062/1000000062_main_034.jpg', 39600, '1', '6', '2', '5', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.3">
@@ -6997,11 +6997,11 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L75" s="10">
         <v>100</v>
@@ -7014,7 +7014,7 @@
       </c>
       <c r="O75" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>10</v>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="V75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (73, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '6', '2', '2', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (73, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '6', '2', '3', '4', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.3">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="J76" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K76" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L76" s="10">
         <v>100</v>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="O76" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>10</v>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="V76" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (74, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '6', '2', '1', '7', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (74, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '6', '2', '3', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
@@ -7135,11 +7135,11 @@
       </c>
       <c r="J77" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K77" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L77" s="10">
         <v>100</v>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="O77" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>10</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="V77" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (75, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '6', '2', '4', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (75, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '6', '2', '5', '3', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.3">
@@ -7204,11 +7204,11 @@
       </c>
       <c r="J78" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L78" s="10">
         <v>100</v>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="O78" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>10</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="V78" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (76, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '1', '6', '2', '5', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (76, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '1', '6', '2', '4', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
@@ -7273,11 +7273,11 @@
       </c>
       <c r="J79" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L79" s="10">
         <v>100</v>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="O79" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>10</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="V79" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (77, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '6', '2', '4', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (77, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '6', '2', '3', '5', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.3">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="J80" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L80" s="10">
         <v>100</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O80" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>10</v>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="V80" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (78, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '6', '2', '1', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (78, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231220/100569_175656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '6', '2', '4', '1', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.3">
@@ -7411,11 +7411,11 @@
       </c>
       <c r="J81" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K81" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L81" s="10">
         <v>100</v>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="O81" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="V81" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (79, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '1', '6', '2', '5', '4', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (79, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '1', '6', '2', '2', '3', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.3">
@@ -7480,11 +7480,11 @@
       </c>
       <c r="J82" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K82" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L82" s="10">
         <v>100</v>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="O82" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>10</v>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="V82" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (80, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '7', '2', '2', '2', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (80, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000170/1000000170_main_011.jpg', 31800, '1', '7', '2', '4', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.3">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="K83" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L83" s="10">
         <v>100</v>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="O83" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>10</v>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="V83" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (81, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002771/1000002771_main_046.jpg', 39800, '1', '7', '2', '1', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (81, '블루보넷 킬레이트 칼슘 마그네슘 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002771/1000002771_main_046.jpg', 39800, '1', '7', '2', '1', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.3">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="K84" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L84" s="10">
         <v>100</v>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="O84" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>10</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="V84" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (82, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '7', '2', '4', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (82, '블루보넷 킬레이트 마그네슘 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002770/1000002770_main_075.jpg', 20800, '1', '7', '2', '4', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.3">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="J85" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" s="10">
         <v>100</v>
@@ -7704,7 +7704,7 @@
       </c>
       <c r="O85" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>10</v>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="V85" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (83, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '7', '2', '1', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (83, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '7', '2', '5', '3', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.3">
@@ -7756,11 +7756,11 @@
       </c>
       <c r="J86" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L86" s="10">
         <v>100</v>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="O86" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>10</v>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="V86" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (84, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '7', '2', '2', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (84, '메가푸드 밸런스 B컴플렉스 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '7', '2', '1', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.3">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="K87" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L87" s="10">
         <v>100</v>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="O87" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>10</v>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="V87" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (85, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '7', '2', '3', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (85, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '7', '2', '3', '6', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.3">
@@ -7894,11 +7894,11 @@
       </c>
       <c r="J88" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L88" s="10">
         <v>100</v>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="O88" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>10</v>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="V88" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (86, '네이처스웨이 멜리사 레몬밤 리프 1500mg 100베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/07//1000002124/1000002124_main_043.jpg', 8700, '1', '7', '2', '4', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (86, '네이처스웨이 멜리사 레몬밤 리프 1500mg 100베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/07//1000002124/1000002124_main_043.jpg', 8700, '1', '7', '2', '1', '2', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.3">
@@ -7963,11 +7963,11 @@
       </c>
       <c r="J89" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L89" s="10">
         <v>100</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="O89" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>10</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="V89" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (87, '블루보넷 타겟 초이스 스트레스 릴리프 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001959/1000001959_main_091.jpg', 34800, '1', '7', '2', '1', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (87, '블루보넷 타겟 초이스 스트레스 릴리프 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001959/1000001959_main_091.jpg', 34800, '1', '7', '2', '2', '2', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.3">
@@ -8032,11 +8032,11 @@
       </c>
       <c r="J90" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L90" s="10">
         <v>100</v>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="O90" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>10</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="V90" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (88, '네이처스웨이 100% 코코넛 MCT 오일 474ml (16 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001975/1000001975_main_076.jpg', 22500, '1', '7', '2', '1', '4', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (88, '네이처스웨이 100% 코코넛 MCT 오일 474ml (16 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001975/1000001975_main_076.jpg', 22500, '1', '7', '2', '5', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.3">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="J91" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="O91" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="V91" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (89, '나우푸드 비타민 D3 2000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002799/1000002799_main_020.jpg', 18900, '1', '7', '2', '3', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (89, '나우푸드 비타민 D3 2000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002799/1000002799_main_020.jpg', 18900, '1', '7', '2', '5', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.3">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="K92" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L92" s="10">
         <v>100</v>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="O92" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>10</v>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="V92" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (90, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '7', '2', '1', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (90, '나우푸드 오가닉 슈퍼프루트 노니주스 946ml (32 fl oz)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/23/1000001951/1000001951_main_048.jpg', 19500, '1', '7', '2', '1', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.3">
@@ -8239,11 +8239,11 @@
       </c>
       <c r="J93" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L93" s="10">
         <v>100</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="O93" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>10</v>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="V93" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (91, '나우푸드 비타민 D3 5000IU 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002800/1000002800_main_053.jpg', 13500, '1', '7', '2', '1', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (91, '나우푸드 비타민 D3 5000IU 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002800/1000002800_main_053.jpg', 13500, '1', '7', '2', '2', '3', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.3">
@@ -8308,11 +8308,11 @@
       </c>
       <c r="J94" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L94" s="10">
         <v>100</v>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="O94" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>10</v>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="V94" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (92, '나우푸드 비타민 D3 5000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002801/1000002801_main_088.jpg', 24500, '1', '7', '2', '5', '5', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (92, '나우푸드 비타민 D3 5000IU 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/13/1000002801/1000002801_main_088.jpg', 24500, '1', '7', '2', '3', '2', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.3">
@@ -8377,11 +8377,11 @@
       </c>
       <c r="J95" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L95" s="10">
         <v>100</v>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="O95" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>10</v>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="V95" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (93, '블루보넷 킬레이트 미네랄 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002761/1000002761_main_050.jpg', 32600, '1', '7', '2', '4', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (93, '블루보넷 킬레이트 미네랄 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/100145_114315.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002761/1000002761_main_050.jpg', 32600, '1', '7', '2', '2', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.3">
@@ -8446,11 +8446,11 @@
       </c>
       <c r="J96" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K96" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L96" s="10">
         <v>100</v>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="O96" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>10</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="V96" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (94, '나우푸드 L-트립토판 1000mg 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg', 31500, '1', '7', '2', '1', '4', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (94, '나우푸드 L-트립토판 1000mg 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/100182_113104.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg', 31500, '1', '7', '2', '3', '1', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.3">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="K97" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97" s="10">
         <v>100</v>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="V97" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (95, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '8', '2', '2', '2', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (95, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '1', '8', '2', '2', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.3">
@@ -8584,11 +8584,11 @@
       </c>
       <c r="J98" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K98" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L98" s="10">
         <v>100</v>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="O98" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>10</v>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="V98" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (96, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '8', '2', '3', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (96, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '8', '2', '1', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.3">
@@ -8653,11 +8653,11 @@
       </c>
       <c r="J99" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L99" s="10">
         <v>100</v>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="O99" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>10</v>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="V99" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (97, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '8', '2', '5', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (97, '나우푸드 레시틴 1200mg 200소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000753/1000000753_main_011.jpg', 21500, '1', '8', '2', '3', '6', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.3">
@@ -8722,11 +8722,11 @@
       </c>
       <c r="J100" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L100" s="10">
         <v>100</v>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="O100" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>10</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="V100" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (98, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '8', '2', '3', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (98, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '8', '2', '4', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.3">
@@ -8795,7 +8795,7 @@
       </c>
       <c r="K101" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L101" s="10">
         <v>100</v>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="O101" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>10</v>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="V101" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (99, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '8', '2', '3', '2', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (99, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '8', '2', '3', '3', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.3">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="J102" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="O102" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>10</v>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="V102" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (100, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '8', '2', '1', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (100, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '8', '2', '3', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.3">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="K103" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L103" s="10">
         <v>100</v>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="O103" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>10</v>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="V103" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (101, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '1', '8', '2', '2', '3', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (101, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '1', '8', '2', '2', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.3">
@@ -8998,11 +8998,11 @@
       </c>
       <c r="J104" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K104" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L104" s="10">
         <v>100</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="O104" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>10</v>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="V104" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (102, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '1', '8', '2', '5', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (102, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '1', '8', '2', '3', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.3">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="O105" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>10</v>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="V105" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (103, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '8', '2', '2', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (103, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '8', '2', '2', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.3">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="K106" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L106" s="10">
         <v>100</v>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="O106" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>10</v>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="V106" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (104, '소스내추럴스 웰니스 포뮬러 허벌 디펜스 컴플렉스 240캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002773/1000002773_main_039.jpg', 48900, '1', '8', '2', '5', '4', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (104, '소스내추럴스 웰니스 포뮬러 허벌 디펜스 컴플렉스 240캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102548_154842.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002773/1000002773_main_039.jpg', 48900, '1', '8', '2', '5', '6', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.3">
@@ -9205,11 +9205,11 @@
       </c>
       <c r="J107" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K107" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L107" s="10">
         <v>100</v>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="O107" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>10</v>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="V107" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (105, '솔가 아세틸 L-카르니틴 250mg 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001999/1000001999_main_04.jpg', 9800, '1', '8', '2', '5', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (105, '솔가 아세틸 L-카르니틴 250mg 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240111/102803_161945.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001999/1000001999_main_04.jpg', 9800, '1', '8', '2', '2', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.3">
@@ -9274,11 +9274,11 @@
       </c>
       <c r="J108" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K108" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L108" s="10">
         <v>100</v>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="O108" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>10</v>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="V108" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (106, '컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000423/1000000423_main_096.jpg', 17500, '1', '8', '2', '4', '1', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (106, '컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230602/102388_175202.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000423/1000000423_main_096.jpg', 17500, '1', '8', '2', '1', '3', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.3">
@@ -9343,11 +9343,11 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K109" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L109" s="10">
         <v>100</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="O109" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>10</v>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="V109" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (107, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '9', '2', '1', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (107, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '9', '2', '5', '4', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.3">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="J110" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="O110" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>10</v>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="V110" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (108, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '9', '2', '4', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (108, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '9', '2', '3', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.3">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="K111" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L111" s="10">
         <v>100</v>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="O111" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>10</v>
@@ -9520,7 +9520,7 @@
       </c>
       <c r="V111" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (109, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '1', '9', '2', '3', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (109, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '1', '9', '2', '3', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
@@ -9550,11 +9550,11 @@
       </c>
       <c r="J112" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K112" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L112" s="10">
         <v>100</v>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="O112" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>10</v>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="V112" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (110, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '9', '2', '5', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (110, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '1', '9', '2', '3', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.3">
@@ -9619,11 +9619,11 @@
       </c>
       <c r="J113" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K113" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L113" s="10">
         <v>100</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="O113" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>10</v>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="V113" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (111, '자로우 매스틱 검 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001981/1000001981_main_016.jpg', 24800, '1', '9', '2', '3', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (111, '자로우 매스틱 검 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/30/1000001981/1000001981_main_016.jpg', 24800, '1', '9', '2', '1', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.3">
@@ -9688,11 +9688,11 @@
       </c>
       <c r="J114" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L114" s="10">
         <v>100</v>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="O114" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>10</v>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="V114" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (112, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '9', '2', '2', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (112, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '9', '2', '1', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.3">
@@ -9757,11 +9757,11 @@
       </c>
       <c r="J115" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K115" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L115" s="10">
         <v>100</v>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="O115" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>10</v>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="V115" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (113, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '9', '2', '5', '2', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (113, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '9', '2', '2', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.3">
@@ -9826,11 +9826,11 @@
       </c>
       <c r="J116" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K116" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L116" s="10">
         <v>100</v>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="O116" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>10</v>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="V116" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (114, '솔가 이노시톨 500mg 100 베지캡', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '9', '2', '2', '6', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (114, '솔가 이노시톨 500mg 100 베지캡', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '9', '2', '3', '3', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.3">
@@ -9895,11 +9895,11 @@
       </c>
       <c r="J117" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K117" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L117" s="10">
         <v>100</v>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="O117" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>10</v>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="V117" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (115, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '9', '2', '3', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (115, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '9', '2', '5', '3', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.3">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="J118" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K118" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="O118" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>10</v>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="V118" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (116, '나우푸드 무취 마늘영양제 250소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000768/1000000768_main_012.jpg', 19700, '1', '9', '2', '3', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (116, '나우푸드 무취 마늘영양제 250소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000768/1000000768_main_012.jpg', 19700, '1', '9', '2', '5', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.3">
@@ -10033,11 +10033,11 @@
       </c>
       <c r="J119" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K119" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L119" s="10">
         <v>100</v>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="O119" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>10</v>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="V119" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (117, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '9', '2', '3', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (117, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240613/102526_151457.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '1', '9', '2', '4', '7', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.3">
@@ -10102,11 +10102,11 @@
       </c>
       <c r="J120" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K120" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120" s="10">
         <v>100</v>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="O120" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>10</v>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="V120" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (118, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '9', '2', '5', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (118, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '9', '2', '2', '1', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.3">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="K121" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L121" s="10">
         <v>100</v>
@@ -10188,7 +10188,7 @@
       </c>
       <c r="O121" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>10</v>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V121" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (119, '네이처스웨이 켈프 600mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '9', '2', '2', '3', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (119, '네이처스웨이 켈프 600mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/102198_175754.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '9', '2', '2', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.3">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="K122" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L122" s="10">
         <v>100</v>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="O122" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>10</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="V122" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (120, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '2', '1', '2', '1', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (120, '솔가 폴리코사놀 20mg 100캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/12/16/1000000276/1000000276_main_031.jpg', 59000, '2', '1', '2', '1', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="123" spans="2:22" x14ac:dyDescent="0.3">
@@ -10309,11 +10309,11 @@
       </c>
       <c r="J123" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K123" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L123" s="10">
         <v>100</v>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="O123" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>10</v>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="V123" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (121, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '2', '1', '2', '4', '3', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (121, '솔가 폴리코사놀 20mg 100캡슐 6병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/12/28/1000001062/1000001062_main_033.jpg', 168000, '2', '1', '2', '5', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="124" spans="2:22" x14ac:dyDescent="0.3">
@@ -10378,11 +10378,11 @@
       </c>
       <c r="J124" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K124" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L124" s="10">
         <v>100</v>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="O124" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>10</v>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="V124" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (122, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '2', '1', '2', '4', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (122, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '2', '1', '2', '3', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.3">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="J125" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="O125" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>10</v>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="V125" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (123, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '2', '1', '2', '2', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (123, '솔가 폴리코사놀 20mg 100캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100164_132619.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/04/1000001070/1000001070_main_01.jpg', 87500, '2', '1', '2', '1', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="126" spans="2:22" x14ac:dyDescent="0.3">
@@ -10516,11 +10516,11 @@
       </c>
       <c r="J126" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K126" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L126" s="10">
         <v>100</v>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="O126" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>10</v>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="V126" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (124, '블루보넷 폴리코사놀 20mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001918/1000001918_main_044.jpg', 24200, '2', '1', '2', '4', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (124, '블루보넷 폴리코사놀 20mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101870_160656.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001918/1000001918_main_044.jpg', 24200, '2', '1', '2', '3', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.3">
@@ -10585,11 +10585,11 @@
       </c>
       <c r="J127" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K127" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L127" s="10">
         <v>100</v>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="O127" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>10</v>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="V127" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (125, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '2', '2', '2', '5', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (125, '노르딕내추럴스 베이비 DHA+비타민 D 2oz (60ml)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000033/1000000033_main_075.jpg', 18100, '2', '2', '2', '2', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="128" spans="2:22" x14ac:dyDescent="0.3">
@@ -10654,11 +10654,11 @@
       </c>
       <c r="J128" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L128" s="10">
         <v>100</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="O128" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>10</v>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="V128" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (126, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '2', '2', '2', '2', '4', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (126, '솔가 오메가3 EPA DHA 950mg 100소프트젤 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg', 116400, '2', '2', '2', '5', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="129" spans="2:22" x14ac:dyDescent="0.3">
@@ -10723,11 +10723,11 @@
       </c>
       <c r="J129" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K129" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L129" s="10">
         <v>100</v>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="V129" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (127, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '2', '2', '2', '3', '3', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (127, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '2', '2', '2', '2', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="130" spans="2:22" x14ac:dyDescent="0.3">
@@ -10792,11 +10792,11 @@
       </c>
       <c r="J130" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K130" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L130" s="10">
         <v>100</v>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="O130" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P130" s="3" t="s">
         <v>10</v>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="V130" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (128, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '2', '2', '2', '4', '5', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (128, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '2', '2', '2', '1', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="131" spans="2:22" x14ac:dyDescent="0.3">
@@ -10861,11 +10861,11 @@
       </c>
       <c r="J131" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K131" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L131" s="10">
         <v>100</v>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="O131" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>10</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="V131" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (129, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '2', '2', '2', '1', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (129, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '2', '2', '2', '3', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="132" spans="2:22" x14ac:dyDescent="0.3">
@@ -10930,7 +10930,7 @@
       </c>
       <c r="J132" s="10">
         <f t="shared" ref="J132:J195" ca="1" si="8">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K132" s="3">
         <f t="shared" ref="K132:K195" ca="1" si="9">RANDBETWEEN(1, 7)</f>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="O132" s="3" t="str">
         <f t="shared" ref="O132:O195" ca="1" si="10">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>10</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="V132" s="4" t="str">
         <f t="shared" ref="V132:V195" ca="1" si="11">"INSERT INTO TB_SLE VALUES (" &amp; B132 &amp; ", '" &amp; C132 &amp; "', '"&amp; D132 &amp; "', '"&amp; E132 &amp; "', "&amp; F132 &amp; ", '"&amp; G132 &amp; "', '"&amp; H132 &amp; "', '"&amp; I132 &amp; "', '"&amp; J132 &amp; "', '"&amp; K132 &amp; "', "&amp; L132 &amp; ", '"&amp; M132 &amp; "', '"&amp; N132 &amp; "', " &amp; O132 &amp; ", " &amp; P132 &amp; ", " &amp; Q132 &amp; ", " &amp; R132 &amp; ", " &amp; S132 &amp; ", " &amp; T132 &amp; ", " &amp; U132 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (130, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '2', '2', '2', '3', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (130, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '2', '2', '2', '2', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="133" spans="2:22" x14ac:dyDescent="0.3">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="J133" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K133" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="O133" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>10</v>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="V133" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (131, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '2', '2', '2', '4', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (131, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '2', '2', '2', '2', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="134" spans="2:22" x14ac:dyDescent="0.3">
@@ -11068,11 +11068,11 @@
       </c>
       <c r="J134" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K134" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L134" s="10">
         <v>100</v>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="O134" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>10</v>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="V134" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (132, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '2', '2', '2', '4', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (132, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '2', '2', '4', '3', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="135" spans="2:22" x14ac:dyDescent="0.3">
@@ -11141,7 +11141,7 @@
       </c>
       <c r="K135" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L135" s="10">
         <v>100</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="O135" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>10</v>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="V135" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (133, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '2', '2', '2', '1', '1', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (133, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '2', '2', '2', '1', '6', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="136" spans="2:22" x14ac:dyDescent="0.3">
@@ -11206,11 +11206,11 @@
       </c>
       <c r="J136" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K136" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L136" s="10">
         <v>100</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="O136" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>10</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="V136" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (134, '나우푸드 넵튠 크릴오일 1,000mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002145/1000002145_main_069.jpg', 48900, '2', '2', '2', '1', '1', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (134, '나우푸드 넵튠 크릴오일 1,000mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002145/1000002145_main_069.jpg', 48900, '2', '2', '2', '4', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="137" spans="2:22" x14ac:dyDescent="0.3">
@@ -11275,11 +11275,11 @@
       </c>
       <c r="J137" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K137" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L137" s="10">
         <v>100</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="O137" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>10</v>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="V137" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (135, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '2', '2', '2', '4', '1', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (135, '노르딕내추럴스 어린이 DHA 180 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231027/102777_174901.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '2', '2', '2', '2', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="138" spans="2:22" x14ac:dyDescent="0.3">
@@ -11344,11 +11344,11 @@
       </c>
       <c r="J138" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K138" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L138" s="10">
         <v>100</v>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="O138" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>10</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="V138" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (136, '노르딕내추럴스 얼티메이트 오메가 2X 딸기향 1120mg 60 미니 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002059/1000002059_main_067.jpg', 38200, '2', '2', '2', '2', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (136, '노르딕내추럴스 얼티메이트 오메가 2X 딸기향 1120mg 60 미니 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/102062_102659.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002059/1000002059_main_067.jpg', 38200, '2', '2', '2', '4', '1', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="139" spans="2:22" x14ac:dyDescent="0.3">
@@ -11413,11 +11413,11 @@
       </c>
       <c r="J139" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K139" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L139" s="10">
         <v>100</v>
@@ -11430,7 +11430,7 @@
       </c>
       <c r="O139" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>10</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="V139" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (137, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '2', '2', '2', '3', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (137, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101354.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '2', '2', '2', '2', '1', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="140" spans="2:22" x14ac:dyDescent="0.3">
@@ -11482,11 +11482,11 @@
       </c>
       <c r="J140" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K140" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L140" s="10">
         <v>100</v>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="O140" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>10</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="V140" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (138, '라이프익스텐션 미오이노시톨 캡슐 1,000mg, 베지 캡슐 360정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002981/1000002981_main_063.jpg', 54800, '2', '3', '2', '3', '4', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (138, '라이프익스텐션 미오이노시톨 캡슐 1,000mg, 베지 캡슐 360정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002981/1000002981_main_063.jpg', 54800, '2', '3', '2', '2', '6', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="141" spans="2:22" x14ac:dyDescent="0.3">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="J141" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K141" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="O141" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>10</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="V141" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (139, '라이프익스텐션 아테리얼 프로텍트 베지 캡슐 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002980/1000002980_main_080.jpg', 37600, '2', '3', '2', '5', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (139, '라이프익스텐션 아테리얼 프로텍트 베지 캡슐 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/05/20/1000002980/1000002980_main_080.jpg', 37600, '2', '3', '2', '2', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="142" spans="2:22" x14ac:dyDescent="0.3">
@@ -11620,11 +11620,11 @@
       </c>
       <c r="J142" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K142" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L142" s="10">
         <v>100</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="O142" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>10</v>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="V142" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (140, '솔가 크랜베리 플러스 에스터C 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/51/1000002968/1000002968_main_06.jpg', 31500, '2', '3', '2', '3', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (140, '솔가 크랜베리 플러스 에스터C 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/51/1000002968/1000002968_main_06.jpg', 31500, '2', '3', '2', '1', '3', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="143" spans="2:22" x14ac:dyDescent="0.3">
@@ -11689,11 +11689,11 @@
       </c>
       <c r="J143" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K143" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L143" s="10">
         <v>100</v>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="O143" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>10</v>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="V143" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (141, '뉴트리콜로지 마이크로 리포소말 C 120ml (4 fl. oz.)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/50/1000002965/1000002965_main_02.jpg', 26500, '2', '3', '2', '5', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (141, '뉴트리콜로지 마이크로 리포소말 C 120ml (4 fl. oz.)', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/50/1000002965/1000002965_main_02.jpg', 26500, '2', '3', '2', '1', '1', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="144" spans="2:22" x14ac:dyDescent="0.3">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="K144" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L144" s="10">
         <v>100</v>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="O144" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>10</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="V144" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (142, '소스내추럴스 MBP 본리뉴 40mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/01/02/1000003015/1000003015_main_053.jpg', 66800, '2', '3', '2', '4', '3', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (142, '소스내추럴스 MBP 본리뉴 40mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/01/02/1000003015/1000003015_main_053.jpg', 66800, '2', '3', '2', '4', '6', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="145" spans="2:22" x14ac:dyDescent="0.3">
@@ -11827,11 +11827,11 @@
       </c>
       <c r="J145" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K145" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L145" s="10">
         <v>100</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="O145" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>10</v>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="V145" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (143, '소스내추럴스 셀레늄 200mcg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/01/02/1000002974/1000002974_main_016.jpg', 16400, '2', '3', '2', '1', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (143, '소스내추럴스 셀레늄 200mcg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/01/02/1000002974/1000002974_main_016.jpg', 16400, '2', '3', '2', '5', '6', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="146" spans="2:22" x14ac:dyDescent="0.3">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="O146" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>10</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="V146" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (144, '솔가 칼슘 "600" 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002950/1000002950_main_012.jpg', 29800, '2', '3', '2', '3', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (144, '솔가 칼슘 "600" 240정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002950/1000002950_main_012.jpg', 29800, '2', '3', '2', '3', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="147" spans="2:22" x14ac:dyDescent="0.3">
@@ -11965,11 +11965,11 @@
       </c>
       <c r="J147" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K147" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L147" s="10">
         <v>100</v>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="O147" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>10</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="V147" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (145, '솔가 칼슘 "600" 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002949/1000002949_main_035.jpg', 15800, '2', '3', '2', '5', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (145, '솔가 칼슘 "600" 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/11/46/1000002949/1000002949_main_035.jpg', 15800, '2', '3', '2', '3', '7', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="148" spans="2:22" x14ac:dyDescent="0.3">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="O148" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>10</v>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="V148" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (146, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/10/41/1000002935/1000002935_main_037.jpg', 19800, '2', '3', '2', '5', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (146, '라이프익스텐션 본 리스토어 위드 비타민 K2 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/10/41/1000002935/1000002935_main_037.jpg', 19800, '2', '3', '2', '5', '1', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="149" spans="2:22" x14ac:dyDescent="0.3">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="K149" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L149" s="10">
         <v>100</v>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="O149" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>10</v>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="V149" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (147, '블루보넷 버퍼드 비타민C-1000mg 180캐플릿', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/37/1000002929/1000002929_main_095.jpg', 37000, '2', '3', '2', '1', '4', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (147, '블루보넷 버퍼드 비타민C-1000mg 180캐플릿', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/37/1000002929/1000002929_main_095.jpg', 37000, '2', '3', '2', '1', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="150" spans="2:22" x14ac:dyDescent="0.3">
@@ -12172,11 +12172,11 @@
       </c>
       <c r="J150" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K150" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L150" s="10">
         <v>100</v>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="O150" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P150" s="3" t="s">
         <v>10</v>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="V150" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (148, '라이프익스텐션 비건 비타민D3 5000IU 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002928/1000002928_main_041.jpg', 17800, '2', '3', '2', '2', '2', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (148, '라이프익스텐션 비건 비타민D3 5000IU 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230224/102377_120108.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002928/1000002928_main_041.jpg', 17800, '2', '3', '2', '3', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="151" spans="2:22" x14ac:dyDescent="0.3">
@@ -12241,11 +12241,11 @@
       </c>
       <c r="J151" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K151" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L151" s="10">
         <v>100</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="O151" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P151" s="3" t="s">
         <v>10</v>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="V151" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (149, '라이프익스텐션 알리포산 R리포산 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/10/43/1000002994/1000002994_main_030.jpg', 36500, '2', '3', '2', '4', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (149, '라이프익스텐션 알리포산 R리포산 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240129/102241_180120.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/10/43/1000002994/1000002994_main_030.jpg', 36500, '2', '3', '2', '5', '3', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="152" spans="2:22" x14ac:dyDescent="0.3">
@@ -12310,11 +12310,11 @@
       </c>
       <c r="J152" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K152" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L152" s="10">
         <v>100</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="O152" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>10</v>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="V152" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (150, '라이프익스텐션 알파리포산 위드 비오틴 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg', 29800, '2', '3', '2', '3', '5', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (150, '라이프익스텐션 알파리포산 위드 비오틴 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102545_155358.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/07/29/1000002895/1000002895_main_029.jpg', 29800, '2', '3', '2', '1', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="153" spans="2:22" x14ac:dyDescent="0.3">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="O153" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P153" s="3" t="s">
         <v>10</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="V153" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (151, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '2', '4', '2', '1', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (151, '솔가 어드밴스드 멀티빌리언 도필러스 60캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001403/1000001403_main_093.jpg', 69500, '2', '4', '2', '1', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="154" spans="2:22" x14ac:dyDescent="0.3">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="K154" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L154" s="10">
         <v>100</v>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="O154" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P154" s="3" t="s">
         <v>10</v>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="V154" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (152, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '2', '4', '2', '5', '6', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (152, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '2', '4', '2', '5', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="155" spans="2:22" x14ac:dyDescent="0.3">
@@ -12517,7 +12517,7 @@
       </c>
       <c r="J155" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K155" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="O155" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P155" s="3" t="s">
         <v>10</v>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="V155" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (153, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '2', '4', '2', '4', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (153, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '2', '4', '2', '3', '3', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="156" spans="2:22" x14ac:dyDescent="0.3">
@@ -12586,11 +12586,11 @@
       </c>
       <c r="J156" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K156" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L156" s="10">
         <v>100</v>
@@ -12603,7 +12603,7 @@
       </c>
       <c r="O156" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P156" s="3" t="s">
         <v>10</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="V156" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (154, '자로우 얌얌 도필러스 10억 유산균 라즈베리향 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000222/1000000222_main_031.jpg', 18000, '2', '4', '2', '2', '2', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (154, '자로우 얌얌 도필러스 10억 유산균 라즈베리향 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000222/1000000222_main_031.jpg', 18000, '2', '4', '2', '1', '5', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="157" spans="2:22" x14ac:dyDescent="0.3">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="O157" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P157" s="3" t="s">
         <v>10</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="V157" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (155, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '2', '4', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (155, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '2', '4', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="158" spans="2:22" x14ac:dyDescent="0.3">
@@ -12724,11 +12724,11 @@
       </c>
       <c r="J158" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K158" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L158" s="10">
         <v>100</v>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="O158" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P158" s="3" t="s">
         <v>10</v>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="V158" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (156, '자로우 펨 도필러스 60 캡슐 상온보관용', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg', 31200, '2', '4', '2', '4', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (156, '자로우 펨 도필러스 60 캡슐 상온보관용', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/10/19/1000001552/1000001552_main_0100.jpg', 31200, '2', '4', '2', '5', '3', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="159" spans="2:22" x14ac:dyDescent="0.3">
@@ -12793,11 +12793,11 @@
       </c>
       <c r="J159" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K159" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L159" s="10">
         <v>100</v>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="O159" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>10</v>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="V159" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (157, '자로우 프리바이오틱스 XOS+GOS 90츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/28/1000001966/1000001966_main_054.jpg', 23800, '2', '4', '2', '1', '6', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (157, '자로우 프리바이오틱스 XOS+GOS 90츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/07/28/1000001966/1000001966_main_054.jpg', 23800, '2', '4', '2', '4', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="160" spans="2:22" x14ac:dyDescent="0.3">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="K160" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L160" s="10">
         <v>100</v>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="O160" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P160" s="3" t="s">
         <v>10</v>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="V160" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (158, '가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg', 68500, '2', '4', '2', '3', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (158, '가든오브라이프 프라이멀 디펜스 울트라 프로바이오틱스 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000111/1000000111_main_01.jpg', 68500, '2', '4', '2', '3', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="161" spans="2:22" x14ac:dyDescent="0.3">
@@ -12931,11 +12931,11 @@
       </c>
       <c r="J161" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K161" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L161" s="10">
         <v>100</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="O161" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>10</v>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="V161" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (159, '네이처스웨이 프리마도필러스 키즈 오렌지맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000053/1000000053_main_033.jpg', 16400, '2', '4', '2', '3', '2', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (159, '네이처스웨이 프리마도필러스 키즈 오렌지맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000053/1000000053_main_033.jpg', 16400, '2', '4', '2', '4', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="162" spans="2:22" x14ac:dyDescent="0.3">
@@ -13000,11 +13000,11 @@
       </c>
       <c r="J162" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K162" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L162" s="10">
         <v>100</v>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="O162" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P162" s="3" t="s">
         <v>10</v>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="V162" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (160, '네이처스웨이 프리마도필러스 키즈 체리맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000082/1000000082_main_074.jpg', 15000, '2', '4', '2', '1', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (160, '네이처스웨이 프리마도필러스 키즈 체리맛 30정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/100147_145629.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000082/1000000082_main_074.jpg', 15000, '2', '4', '2', '2', '7', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="163" spans="2:22" x14ac:dyDescent="0.3">
@@ -13069,11 +13069,11 @@
       </c>
       <c r="J163" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K163" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L163" s="10">
         <v>100</v>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="O163" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>10</v>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="V163" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (161, '가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg', 38200, '2', '4', '2', '4', '4', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (161, '가든오브라이프 원스데일리 여성 500억 프로바이오틱스 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240415/102819_142005.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002160/1000002160_main_097.jpg', 38200, '2', '4', '2', '2', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="164" spans="2:22" x14ac:dyDescent="0.3">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="J164" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K164" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="O164" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>10</v>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="V164" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (162, '블루보넷 레인포레스트 애니멀 Z 유산균 라즈베리 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg', 20300, '2', '4', '2', '5', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (162, '블루보넷 레인포레스트 애니멀 Z 유산균 라즈베리 60츄어블', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240126/101919_145902.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg', 20300, '2', '4', '2', '3', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="165" spans="2:22" x14ac:dyDescent="0.3">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="J165" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K165" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L165" s="10">
         <v>100</v>
@@ -13224,7 +13224,7 @@
       </c>
       <c r="O165" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>10</v>
@@ -13246,7 +13246,7 @@
       </c>
       <c r="V165" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (163, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000548/1000000548_main_027.jpg', 56800, '2', '5', '2', '2', '6', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (163, '솔가 글루코사민 히알루론산 콘드로이친 MSM 120 정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000548/1000000548_main_027.jpg', 56800, '2', '5', '2', '1', '1', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="166" spans="2:22" x14ac:dyDescent="0.3">
@@ -13276,11 +13276,11 @@
       </c>
       <c r="J166" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K166" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L166" s="10">
         <v>100</v>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="O166" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P166" s="3" t="s">
         <v>10</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="V166" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (164, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000183/1000000183_main_031.jpg', 49800, '2', '5', '2', '1', '5', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (164, '솔가 글루코사민 콘드로이친 MSM 위드 에스터 C 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000183/1000000183_main_031.jpg', 49800, '2', '5', '2', '4', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="167" spans="2:22" x14ac:dyDescent="0.3">
@@ -13345,11 +13345,11 @@
       </c>
       <c r="J167" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K167" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L167" s="10">
         <v>100</v>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="O167" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P167" s="3" t="s">
         <v>10</v>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="V167" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (165, '솔가 스킨 네일 헤어 어드밴스드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg', 31800, '2', '5', '2', '1', '2', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (165, '솔가 스킨 네일 헤어 어드밴스드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/09/1000000336/1000000336_main_090.jpg', 31800, '2', '5', '2', '4', '4', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="168" spans="2:22" x14ac:dyDescent="0.3">
@@ -13414,11 +13414,11 @@
       </c>
       <c r="J168" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K168" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L168" s="10">
         <v>100</v>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="O168" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P168" s="3" t="s">
         <v>10</v>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="V168" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (166, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000341/1000000341_main_082.jpg', 23800, '2', '5', '2', '1', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (166, '네이처스웨이 MSM 1000mg 퓨어옵티 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000341/1000000341_main_082.jpg', 23800, '2', '5', '2', '5', '1', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="169" spans="2:22" x14ac:dyDescent="0.3">
@@ -13483,11 +13483,11 @@
       </c>
       <c r="J169" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K169" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L169" s="10">
         <v>100</v>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="O169" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P169" s="3" t="s">
         <v>10</v>
@@ -13522,7 +13522,7 @@
       </c>
       <c r="V169" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (167, '솔가 L 글루타치온 250mg 60 베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000550/1000000550_main_031.jpg', 46800, '2', '5', '2', '3', '4', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (167, '솔가 L 글루타치온 250mg 60 베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000550/1000000550_main_031.jpg', 46800, '2', '5', '2', '4', '3', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="170" spans="2:22" x14ac:dyDescent="0.3">
@@ -13552,11 +13552,11 @@
       </c>
       <c r="J170" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K170" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L170" s="10">
         <v>100</v>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="O170" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>10</v>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="V170" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (168, '나우푸드 MSM 1000mg 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000757/1000000757_main_044.jpg', 21200, '2', '5', '2', '3', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (168, '나우푸드 MSM 1000mg 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000757/1000000757_main_044.jpg', 21200, '2', '5', '2', '2', '1', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="171" spans="2:22" x14ac:dyDescent="0.3">
@@ -13621,11 +13621,11 @@
       </c>
       <c r="J171" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K171" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L171" s="10">
         <v>100</v>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="O171" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P171" s="3" t="s">
         <v>10</v>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="V171" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (169, '컨트리라이프 글루코사민 콘드로이친 포뮬러 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000391/1000000391_main_073.jpg', 35900, '2', '5', '2', '2', '5', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (169, '컨트리라이프 글루코사민 콘드로이친 포뮬러 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000391/1000000391_main_073.jpg', 35900, '2', '5', '2', '1', '3', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="172" spans="2:22" x14ac:dyDescent="0.3">
@@ -13694,7 +13694,7 @@
       </c>
       <c r="K172" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L172" s="10">
         <v>100</v>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="O172" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>10</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="V172" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (170, '나우푸드 글루코사민 &amp; MSM 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000903/1000000903_main_010.jpg', 32600, '2', '5', '2', '5', '6', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (170, '나우푸드 글루코사민 &amp; MSM 240베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000903/1000000903_main_010.jpg', 32600, '2', '5', '2', '5', '5', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="173" spans="2:22" x14ac:dyDescent="0.3">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="J173" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K173" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="O173" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P173" s="3" t="s">
         <v>10</v>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="V173" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (171, '소스내추럴스 글루코사민 콘드로이친 컴플렉스 위드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001214/1000001214_main_095.jpg', 34800, '2', '5', '2', '3', '4', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (171, '소스내추럴스 글루코사민 콘드로이친 컴플렉스 위드 MSM 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211215/102282_130622.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001214/1000001214_main_095.jpg', 34800, '2', '5', '2', '4', '4', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="174" spans="2:22" x14ac:dyDescent="0.3">
@@ -13828,11 +13828,11 @@
       </c>
       <c r="J174" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K174" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L174" s="10">
         <v>100</v>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="O174" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P174" s="3" t="s">
         <v>10</v>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="V174" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (172, '나우푸드 MSM 1500mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002864/1000002864_main_088.jpg', 28900, '2', '5', '2', '3', '1', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (172, '나우푸드 MSM 1500mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100512_140912.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002864/1000002864_main_088.jpg', 28900, '2', '5', '2', '4', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="175" spans="2:22" x14ac:dyDescent="0.3">
@@ -13897,11 +13897,11 @@
       </c>
       <c r="J175" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K175" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L175" s="10">
         <v>100</v>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="O175" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P175" s="3" t="s">
         <v>10</v>
@@ -13936,7 +13936,7 @@
       </c>
       <c r="V175" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (173, '나우푸드 글루코사민 콘드로이친 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg', 37000, '2', '5', '2', '5', '7', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (173, '나우푸드 글루코사민 콘드로이친 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/240103/102612_130206.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/15/1000002827/1000002827_main_02.jpg', 37000, '2', '5', '2', '1', '3', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="176" spans="2:22" x14ac:dyDescent="0.3">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="J176" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K176" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O176" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P176" s="3" t="s">
         <v>10</v>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="V176" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (174, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '2', '6', '2', '3', '6', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (174, '솔가 루테인 40mg 30 소프트젤 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/03/1000001405/1000001405_main_072.jpg', 73500, '2', '6', '2', '1', '6', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="177" spans="2:22" x14ac:dyDescent="0.3">
@@ -14035,11 +14035,11 @@
       </c>
       <c r="J177" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K177" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L177" s="10">
         <v>100</v>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="O177" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P177" s="3" t="s">
         <v>10</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="V177" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (175, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '2', '6', '2', '4', '2', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (175, '솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000538/1000000538_main_085.jpg', 24500, '2', '6', '2', '5', '4', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="178" spans="2:22" x14ac:dyDescent="0.3">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="K178" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L178" s="10">
         <v>100</v>
@@ -14118,7 +14118,7 @@
       </c>
       <c r="O178" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P178" s="3" t="s">
         <v>10</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="V178" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (176, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', '', 39600, '2', '6', '2', '5', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (176, '네이처스웨이 징크골드 아이즈 빌베리 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', '', 39600, '2', '6', '2', '5', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="179" spans="2:22" x14ac:dyDescent="0.3">
@@ -14170,11 +14170,11 @@
       </c>
       <c r="J179" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K179" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L179" s="10">
         <v>100</v>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="O179" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P179" s="3" t="s">
         <v>10</v>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="V179" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (177, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '2', '6', '2', '2', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (177, '나우푸드 루테인 20mg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000755/1000000755_main_041.jpg', 24800, '2', '6', '2', '1', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="180" spans="2:22" x14ac:dyDescent="0.3">
@@ -14239,11 +14239,11 @@
       </c>
       <c r="J180" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K180" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L180" s="10">
         <v>100</v>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="O180" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P180" s="3" t="s">
         <v>10</v>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="V180" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (178, '자로우 루테인 20mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001159/1000001159_main_054.jpg', 16740, '2', '6', '2', '1', '4', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (178, '자로우 루테인 20mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001159/1000001159_main_054.jpg', 16740, '2', '6', '2', '5', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="181" spans="2:22" x14ac:dyDescent="0.3">
@@ -14308,11 +14308,11 @@
       </c>
       <c r="J181" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K181" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L181" s="10">
         <v>100</v>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="O181" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P181" s="3" t="s">
         <v>10</v>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="V181" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (179, '나우푸드 루테인 지아잔틴 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002840/1000002840_main_091.jpg', 24800, '2', '6', '2', '5', '2', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (179, '나우푸드 루테인 지아잔틴 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/17/1000002840/1000002840_main_091.jpg', 24800, '2', '6', '2', '2', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="182" spans="2:22" x14ac:dyDescent="0.3">
@@ -14377,11 +14377,11 @@
       </c>
       <c r="J182" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K182" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L182" s="10">
         <v>100</v>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="O182" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P182" s="3" t="s">
         <v>10</v>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="V182" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (180, '노르딕내추럴스 오메가 비전 1460mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002162/1000002162_main_0100.jpg', 49500, '2', '6', '2', '2', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (180, '노르딕내추럴스 오메가 비전 1460mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002162/1000002162_main_0100.jpg', 49500, '2', '6', '2', '5', '6', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="183" spans="2:22" x14ac:dyDescent="0.3">
@@ -14446,11 +14446,11 @@
       </c>
       <c r="J183" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K183" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L183" s="10">
         <v>100</v>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="O183" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P183" s="3" t="s">
         <v>10</v>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="V183" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (181, '컨트리라이프 루테인 20mg 60소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000424/1000000424_main_046.jpg', 29900, '2', '6', '2', '4', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (181, '컨트리라이프 루테인 20mg 60소프트겔', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000424/1000000424_main_046.jpg', 29900, '2', '6', '2', '3', '4', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="184" spans="2:22" x14ac:dyDescent="0.3">
@@ -14515,11 +14515,11 @@
       </c>
       <c r="J184" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K184" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L184" s="10">
         <v>100</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="O184" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P184" s="3" t="s">
         <v>10</v>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="V184" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (182, '솔가 루테인 20mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002144/1000002144_main_035.jpg', 29500, '2', '6', '2', '1', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (182, '솔가 루테인 20mg 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002144/1000002144_main_035.jpg', 29500, '2', '6', '2', '2', '2', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="185" spans="2:22" x14ac:dyDescent="0.3">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="K185" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L185" s="10">
         <v>100</v>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="O185" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P185" s="3" t="s">
         <v>10</v>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="V185" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (183, '자로우 블랙커런트&amp;루테인 복합제, 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001163/1000001163_main_057.jpg', 27900, '2', '6', '2', '4', '7', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (183, '자로우 블랙커런트&amp;루테인 복합제, 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211202/100240_095929.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001163/1000001163_main_057.jpg', 27900, '2', '6', '2', '4', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="186" spans="2:22" x14ac:dyDescent="0.3">
@@ -14653,7 +14653,7 @@
       </c>
       <c r="J186" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K186" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O186" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P186" s="3" t="s">
         <v>10</v>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="V186" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (184, '나우푸드 루테인 10mg 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001208/1000001208_main_086.jpg', 22000, '2', '6', '2', '5', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (184, '나우푸드 루테인 10mg 120소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210928/101283_115109.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001208/1000001208_main_086.jpg', 22000, '2', '6', '2', '1', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="187" spans="2:22" x14ac:dyDescent="0.3">
@@ -14722,11 +14722,11 @@
       </c>
       <c r="J187" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K187" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L187" s="10">
         <v>100</v>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="O187" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P187" s="3" t="s">
         <v>10</v>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="V187" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (185, '[유통기한임박상품] 솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003049/1000000538_main_085.jpg', 15930, '2', '6', '2', '3', '4', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (185, '[유통기한임박상품] 솔가 루테인 40mg 30 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231130/100844_132053.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003049/1000000538_main_085.jpg', 15930, '2', '6', '2', '1', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="188" spans="2:22" x14ac:dyDescent="0.3">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="J188" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K188" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L188" s="10">
         <v>100</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="O188" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P188" s="3" t="s">
         <v>10</v>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="V188" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (186, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '2', '7', '2', '3', '1', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (186, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '2', '7', '2', '4', '7', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="189" spans="2:22" x14ac:dyDescent="0.3">
@@ -14860,11 +14860,11 @@
       </c>
       <c r="J189" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K189" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L189" s="10">
         <v>100</v>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="O189" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P189" s="3" t="s">
         <v>10</v>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="V189" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (187, '솔가 메가솔브 코큐텐 100mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000866/1000000866_main_062.png', 31500, '2', '7', '2', '1', '4', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (187, '솔가 메가솔브 코큐텐 100mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000866/1000000866_main_062.png', 31500, '2', '7', '2', '4', '7', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="190" spans="2:22" x14ac:dyDescent="0.3">
@@ -14929,11 +14929,11 @@
       </c>
       <c r="J190" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K190" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L190" s="10">
         <v>100</v>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="O190" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P190" s="3" t="s">
         <v>10</v>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="V190" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (188, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '7', '2', '4', '6', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (188, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '2', '7', '2', '1', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="191" spans="2:22" x14ac:dyDescent="0.3">
@@ -14998,11 +14998,11 @@
       </c>
       <c r="J191" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K191" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L191" s="10">
         <v>100</v>
@@ -15015,7 +15015,7 @@
       </c>
       <c r="O191" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P191" s="3" t="s">
         <v>10</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="V191" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (189, '나우푸드 코큐텐 코엔자임 200mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000927/1000000927_main_095.jpg', 33400, '2', '7', '2', '1', '6', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (189, '나우푸드 코큐텐 코엔자임 200mg 60베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000927/1000000927_main_095.jpg', 33400, '2', '7', '2', '4', '3', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="192" spans="2:22" x14ac:dyDescent="0.3">
@@ -15067,11 +15067,11 @@
       </c>
       <c r="J192" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K192" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L192" s="10">
         <v>100</v>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="O192" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P192" s="3" t="s">
         <v>10</v>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="V192" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (190, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '7', '2', '4', '3', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (190, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '7', '2', '2', '6', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.3">
@@ -15136,11 +15136,11 @@
       </c>
       <c r="J193" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K193" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L193" s="10">
         <v>100</v>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="O193" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P193" s="3" t="s">
         <v>10</v>
@@ -15175,7 +15175,7 @@
       </c>
       <c r="V193" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (191, '블루보넷 코큐텐 200mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001914/1000001914_main_047.jpg', 43600, '2', '7', '2', '1', '1', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (191, '블루보넷 코큐텐 200mg 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001914/1000001914_main_047.jpg', 43600, '2', '7', '2', '2', '7', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.3">
@@ -15205,11 +15205,11 @@
       </c>
       <c r="J194" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K194" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L194" s="10">
         <v>100</v>
@@ -15222,7 +15222,7 @@
       </c>
       <c r="O194" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P194" s="3" t="s">
         <v>10</v>
@@ -15244,7 +15244,7 @@
       </c>
       <c r="V194" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (192, '가든오브라이프 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000120/1000000120_main_065.jpg', 62400, '2', '7', '2', '2', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (192, '가든오브라이프 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000120/1000000120_main_065.jpg', 62400, '2', '7', '2', '5', '7', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.3">
@@ -15278,7 +15278,7 @@
       </c>
       <c r="K195" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195" s="10">
         <v>100</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="O195" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P195" s="3" t="s">
         <v>10</v>
@@ -15313,7 +15313,7 @@
       </c>
       <c r="V195" s="4" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (193, '컨트리라이프 코큐텐 100mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000413/1000000413_main_059.jpg', 35800, '2', '7', '2', '3', '3', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (193, '컨트리라이프 코큐텐 100mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000413/1000000413_main_059.jpg', 35800, '2', '7', '2', '3', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="196" spans="2:22" x14ac:dyDescent="0.3">
@@ -15343,11 +15343,11 @@
       </c>
       <c r="J196" s="10">
         <f t="shared" ref="J196:J257" ca="1" si="12">RANDBETWEEN(1, 5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K196" s="3">
         <f t="shared" ref="K196:K257" ca="1" si="13">RANDBETWEEN(1, 7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L196" s="10">
         <v>100</v>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="O196" s="3" t="str">
         <f t="shared" ref="O196:O257" ca="1" si="14">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P196" s="3" t="s">
         <v>10</v>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="V196" s="4" t="str">
         <f t="shared" ref="V196:V257" ca="1" si="15">"INSERT INTO TB_SLE VALUES (" &amp; B196 &amp; ", '" &amp; C196 &amp; "', '"&amp; D196 &amp; "', '"&amp; E196 &amp; "', "&amp; F196 &amp; ", '"&amp; G196 &amp; "', '"&amp; H196 &amp; "', '"&amp; I196 &amp; "', '"&amp; J196 &amp; "', '"&amp; K196 &amp; "', "&amp; L196 &amp; ", '"&amp; M196 &amp; "', '"&amp; N196 &amp; "', " &amp; O196 &amp; ", " &amp; P196 &amp; ", " &amp; Q196 &amp; ", " &amp; R196 &amp; ", " &amp; S196 &amp; ", " &amp; T196 &amp; ", " &amp; U196 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (194, '나우푸드 코큐텐 60mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000917/1000000917_main_034.jpg', 34200, '2', '7', '2', '2', '2', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (194, '나우푸드 코큐텐 60mg 180캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000917/1000000917_main_034.jpg', 34200, '2', '7', '2', '1', '7', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="197" spans="2:22" x14ac:dyDescent="0.3">
@@ -15412,11 +15412,11 @@
       </c>
       <c r="J197" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K197" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L197" s="10">
         <v>100</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="O197" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P197" s="3" t="s">
         <v>10</v>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="V197" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (195, '컨트리라이프 코큐텐 100mg 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000412/1000000412_main_049.jpg', 21500, '2', '7', '2', '1', '2', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (195, '컨트리라이프 코큐텐 100mg 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000412/1000000412_main_049.jpg', 21500, '2', '7', '2', '3', '3', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="198" spans="2:22" x14ac:dyDescent="0.3">
@@ -15481,11 +15481,11 @@
       </c>
       <c r="J198" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K198" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L198" s="10">
         <v>100</v>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="O198" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P198" s="3" t="s">
         <v>10</v>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="V198" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (196, '어메이징포뮬라 베르베린 1000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/48/1000003006/1000003006_main_02.jpg', 37500, '2', '7', '2', '3', '6', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (196, '어메이징포뮬라 베르베린 1000mg 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/nordic/101112.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/48/1000003006/1000003006_main_02.jpg', 37500, '2', '7', '2', '5', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="199" spans="2:22" x14ac:dyDescent="0.3">
@@ -15550,11 +15550,11 @@
       </c>
       <c r="J199" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K199" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L199" s="10">
         <v>100</v>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="O199" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P199" s="3" t="s">
         <v>10</v>
@@ -15589,7 +15589,7 @@
       </c>
       <c r="V199" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (197, '나우푸드 코큐텐 100mg 호손베리 함유 180베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000932/1000000932_main_053.jpg', 50500, '2', '7', '2', '4', '2', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (197, '나우푸드 코큐텐 100mg 호손베리 함유 180베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211028/101908_162848.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000932/1000000932_main_053.jpg', 50500, '2', '7', '2', '3', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.3">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="J200" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K200" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -15636,7 +15636,7 @@
       </c>
       <c r="O200" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P200" s="3" t="s">
         <v>10</v>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="V200" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (198, '솔가 유비퀴놀 100mg 50소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002884/1000002884_main_032.jpg', 31000, '2', '7', '2', '4', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (198, '솔가 유비퀴놀 100mg 50소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100579_153713.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002884/1000002884_main_032.jpg', 31000, '2', '7', '2', '3', '7', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.3">
@@ -15688,11 +15688,11 @@
       </c>
       <c r="J201" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K201" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L201" s="10">
         <v>100</v>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="O201" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P201" s="3" t="s">
         <v>10</v>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="V201" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (199, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '2', '8', '2', '1', '4', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (199, '[열혈남자세트] 나우푸드 L-아르기닌+마카+아연', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/27/1000001180/1000001180_main_021.jpg', 57800, '2', '8', '2', '5', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="202" spans="2:22" x14ac:dyDescent="0.3">
@@ -15757,11 +15757,11 @@
       </c>
       <c r="J202" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K202" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L202" s="10">
         <v>100</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="O202" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P202" s="3" t="s">
         <v>10</v>
@@ -15796,7 +15796,7 @@
       </c>
       <c r="V202" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (200, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '2', '8', '2', '5', '1', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (200, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '2', '8', '2', '1', '3', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="203" spans="2:22" x14ac:dyDescent="0.3">
@@ -15826,11 +15826,11 @@
       </c>
       <c r="J203" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K203" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L203" s="10">
         <v>100</v>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="O203" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P203" s="3" t="s">
         <v>10</v>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="V203" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (201, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '2', '8', '2', '4', '5', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (201, '나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/02/1000000695/1000000695_main_065.jpg', 19800, '2', '8', '2', '2', '4', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="204" spans="2:22" x14ac:dyDescent="0.3">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="J204" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K204" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L204" s="10">
         <v>100</v>
@@ -15912,7 +15912,7 @@
       </c>
       <c r="O204" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P204" s="3" t="s">
         <v>10</v>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="V204" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (202, '솔가 L-아르기닌 1,000mg 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '2', '8', '2', '5', '7', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (202, '솔가 L-아르기닌 1,000mg 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '2', '8', '2', '1', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="205" spans="2:22" x14ac:dyDescent="0.3">
@@ -15964,11 +15964,11 @@
       </c>
       <c r="J205" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K205" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L205" s="10">
         <v>100</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="O205" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P205" s="3" t="s">
         <v>10</v>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="V205" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (203, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '2', '8', '2', '4', '7', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (203, '블루보넷 L-아르기닌 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001917/1000001917_main_027.jpg', 23900, '2', '8', '2', '3', '3', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="206" spans="2:22" x14ac:dyDescent="0.3">
@@ -16033,11 +16033,11 @@
       </c>
       <c r="J206" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K206" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L206" s="10">
         <v>100</v>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="O206" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P206" s="3" t="s">
         <v>10</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="V206" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (204, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '8', '2', '3', '7', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (204, '블루보넷 타겟 초이스 블러드 프레셔 90식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001960/1000001960_main_061.jpg', 41100, '2', '8', '2', '2', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="207" spans="2:22" x14ac:dyDescent="0.3">
@@ -16102,11 +16102,11 @@
       </c>
       <c r="J207" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K207" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L207" s="10">
         <v>100</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="O207" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P207" s="3" t="s">
         <v>10</v>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="V207" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (205, '소스내추럴스 L-아르기닌 프리폼 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001218/1000001218_main_02.jpg', 19800, '2', '8', '2', '2', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (205, '소스내추럴스 L-아르기닌 프리폼 1000mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/04/1000001218/1000001218_main_02.jpg', 19800, '2', '8', '2', '3', '6', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="208" spans="2:22" x14ac:dyDescent="0.3">
@@ -16171,11 +16171,11 @@
       </c>
       <c r="J208" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K208" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L208" s="10">
         <v>100</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="O208" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P208" s="3" t="s">
         <v>10</v>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="V208" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (206, '나우푸드 L-아르기닌 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001206/1000001206_main_065.jpg', 22500, '2', '8', '2', '4', '5', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (206, '나우푸드 L-아르기닌 500mg 250베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001206/1000001206_main_065.jpg', 22500, '2', '8', '2', '2', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="209" spans="2:22" x14ac:dyDescent="0.3">
@@ -16240,11 +16240,11 @@
       </c>
       <c r="J209" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K209" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L209" s="10">
         <v>100</v>
@@ -16257,7 +16257,7 @@
       </c>
       <c r="O209" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P209" s="3" t="s">
         <v>10</v>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="V209" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (207, '컨트리라이프 L 아르기닌 500mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000377/1000000377_main_011.jpg', 18800, '2', '8', '2', '5', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (207, '컨트리라이프 L 아르기닌 500mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000377/1000000377_main_011.jpg', 18800, '2', '8', '2', '2', '6', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="210" spans="2:22" x14ac:dyDescent="0.3">
@@ -16309,11 +16309,11 @@
       </c>
       <c r="J210" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K210" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L210" s="10">
         <v>100</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="O210" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P210" s="3" t="s">
         <v>10</v>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="V210" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (208, '닥터스베스트 서방형 아르기닌 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002926/1000002926_main_091.jpg', 29800, '2', '8', '2', '3', '6', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (208, '닥터스베스트 서방형 아르기닌 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002926/1000002926_main_091.jpg', 29800, '2', '8', '2', '1', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="211" spans="2:22" x14ac:dyDescent="0.3">
@@ -16378,11 +16378,11 @@
       </c>
       <c r="J211" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K211" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L211" s="10">
         <v>100</v>
@@ -16395,7 +16395,7 @@
       </c>
       <c r="O211" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P211" s="3" t="s">
         <v>10</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="V211" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (209, '소스내추럴 아르기닌 100정+ 마카 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/01/04/1000002187/1000002187_main_023.jpg', 30900, '2', '8', '2', '3', '6', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (209, '소스내추럴 아르기닌 100정+ 마카 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/01/04/1000002187/1000002187_main_023.jpg', 30900, '2', '8', '2', '1', '5', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="212" spans="2:22" x14ac:dyDescent="0.3">
@@ -16447,11 +16447,11 @@
       </c>
       <c r="J212" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K212" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L212" s="10">
         <v>100</v>
@@ -16464,7 +16464,7 @@
       </c>
       <c r="O212" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P212" s="3" t="s">
         <v>10</v>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="V212" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (210, '닥터스베스트 니트로시진 아르기닌 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002927/1000002927_main_060.jpg', 39600, '2', '8', '2', '3', '5', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (210, '닥터스베스트 니트로시진 아르기닌 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230216/101871_160440.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/09/36/1000002927/1000002927_main_060.jpg', 39600, '2', '8', '2', '2', '1', 100, '칼라일', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="213" spans="2:22" x14ac:dyDescent="0.3">
@@ -16516,11 +16516,11 @@
       </c>
       <c r="J213" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K213" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L213" s="10">
         <v>100</v>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="O213" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P213" s="3" t="s">
         <v>10</v>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="V213" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (211, '컨트리라이프 맥스 아미노 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000382/1432780653362s0.jpg', 19900, '2', '8', '2', '3', '5', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (211, '컨트리라이프 맥스 아미노 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230531/102469_170129.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000382/1432780653362s0.jpg', 19900, '2', '8', '2', '5', '7', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="214" spans="2:22" x14ac:dyDescent="0.3">
@@ -16585,11 +16585,11 @@
       </c>
       <c r="J214" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K214" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L214" s="10">
         <v>100</v>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="O214" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P214" s="3" t="s">
         <v>10</v>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="V214" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (212, '1+1나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/05/22/1000001939/1000001939_main_056.jpg', 32900, '2', '8', '2', '2', '6', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (212, '1+1나우푸드 L-아르기닌 1000mg 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211201/101330_132002.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/05/22/1000001939/1000001939_main_056.jpg', 32900, '2', '8', '2', '4', '1', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="215" spans="2:22" x14ac:dyDescent="0.3">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="J215" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K215" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="O215" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P215" s="3" t="s">
         <v>10</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="V215" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (213, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '2', '9', '2', '3', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (213, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '2', '9', '2', '5', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="216" spans="2:22" x14ac:dyDescent="0.3">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="J216" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K216" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -16740,7 +16740,7 @@
       </c>
       <c r="O216" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P216" s="3" t="s">
         <v>10</v>
@@ -16762,7 +16762,7 @@
       </c>
       <c r="V216" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (214, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '2', '9', '2', '2', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (214, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '2', '9', '2', '3', '2', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="217" spans="2:22" x14ac:dyDescent="0.3">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="J217" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K217" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -16809,7 +16809,7 @@
       </c>
       <c r="O217" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P217" s="3" t="s">
         <v>10</v>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="V217" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (215, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '2', '9', '2', '4', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (215, '솔가 밀크씨슬 250 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000869/1000000869_main_082.jpg', 48800, '2', '9', '2', '3', '5', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="218" spans="2:22" x14ac:dyDescent="0.3">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="K218" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L218" s="10">
         <v>100</v>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="O218" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P218" s="3" t="s">
         <v>10</v>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="V218" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (216, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '2', '9', '2', '5', '5', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (216, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001413/1000001413_main_06.jpg', 92700, '2', '9', '2', '5', '1', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="219" spans="2:22" x14ac:dyDescent="0.3">
@@ -16930,11 +16930,11 @@
       </c>
       <c r="J219" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K219" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L219" s="10">
         <v>100</v>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="O219" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P219" s="3" t="s">
         <v>10</v>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="V219" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (217, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '2', '9', '2', '5', '1', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (217, '네이처스웨이 밀크씨슬 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '2', '9', '2', '2', '4', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 23, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="220" spans="2:22" x14ac:dyDescent="0.3">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="K220" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L220" s="10">
         <v>100</v>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="O220" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P220" s="3" t="s">
         <v>10</v>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="V220" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (218, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '2', '9', '2', '4', '3', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (218, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '2', '9', '2', '4', '5', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="221" spans="2:22" x14ac:dyDescent="0.3">
@@ -17068,11 +17068,11 @@
       </c>
       <c r="J221" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K221" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L221" s="10">
         <v>100</v>
@@ -17085,7 +17085,7 @@
       </c>
       <c r="O221" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P221" s="3" t="s">
         <v>10</v>
@@ -17107,7 +17107,7 @@
       </c>
       <c r="V221" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (219, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '2', '9', '2', '1', '6', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (219, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '2', '9', '2', '5', '3', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="222" spans="2:22" x14ac:dyDescent="0.3">
@@ -17137,11 +17137,11 @@
       </c>
       <c r="J222" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K222" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L222" s="10">
         <v>100</v>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="O222" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P222" s="3" t="s">
         <v>10</v>
@@ -17176,7 +17176,7 @@
       </c>
       <c r="V222" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (220, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '2', '9', '2', '5', '4', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (220, '자로우 밀크씨슬 150mg 100 캡슐 2개 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000880/1000000880_main_072.jpg', 29760, '2', '9', '2', '2', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="223" spans="2:22" x14ac:dyDescent="0.3">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="J223" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K223" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="O223" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P223" s="3" t="s">
         <v>10</v>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="V223" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (221, '라이프익스텐션 어드밴스드 밀크씨슬 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002807/1000002807_main_022.jpg', 35600, '2', '9', '2', '3', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (221, '라이프익스텐션 어드밴스드 밀크씨슬 120 소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002807/1000002807_main_022.jpg', 35600, '2', '9', '2', '4', '1', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="224" spans="2:22" x14ac:dyDescent="0.3">
@@ -17275,11 +17275,11 @@
       </c>
       <c r="J224" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K224" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L224" s="10">
         <v>100</v>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="O224" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P224" s="3" t="s">
         <v>10</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="V224" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (222, '네이처스웨이 밀크씨슬 120캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '2', '9', '2', '2', '2', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (222, '네이처스웨이 밀크씨슬 120캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/jarrow/100974.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '2', '9', '2', '1', '4', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="225" spans="2:22" x14ac:dyDescent="0.3">
@@ -17344,11 +17344,11 @@
       </c>
       <c r="J225" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K225" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L225" s="10">
         <v>100</v>
@@ -17361,7 +17361,7 @@
       </c>
       <c r="O225" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P225" s="3" t="s">
         <v>10</v>
@@ -17383,7 +17383,7 @@
       </c>
       <c r="V225" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (223, '자로우 밀크씨슬 150mg 200캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/03/1000002765/1000002765_main_058.jpg', 27900, '2', '9', '2', '2', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (223, '자로우 밀크씨슬 150mg 200캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100258.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/03/1000002765/1000002765_main_058.jpg', 27900, '2', '9', '2', '3', '5', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="226" spans="2:22" x14ac:dyDescent="0.3">
@@ -17413,11 +17413,11 @@
       </c>
       <c r="J226" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K226" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L226" s="10">
         <v>100</v>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="O226" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P226" s="3" t="s">
         <v>10</v>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="V226" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (224, '솔가 밀크씨슬 250 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001411/1000001411_main_086.jpg', 146400, '2', '9', '2', '1', '6', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (224, '솔가 밀크씨슬 250 캡슐 3병세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/210903/101007_165158.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001411/1000001411_main_086.jpg', 146400, '2', '9', '2', '3', '4', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="227" spans="2:22" x14ac:dyDescent="0.3">
@@ -17482,11 +17482,11 @@
       </c>
       <c r="J227" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K227" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L227" s="10">
         <v>100</v>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="O227" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P227" s="3" t="s">
         <v>10</v>
@@ -17521,7 +17521,7 @@
       </c>
       <c r="V227" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (225, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '3', '1', '2', '4', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (225, '라이프익스텐션 투퍼데이 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '3', '1', '2', '1', '6', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="228" spans="2:22" x14ac:dyDescent="0.3">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K228" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L228" s="10">
         <v>100</v>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="O228" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P228" s="3" t="s">
         <v>10</v>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="V228" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (226, '네이처스웨이 얼라이브 원스 데일리 남성 멀티비타민 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000085/1000000085_main_017.jpg', 24800, '3', '1', '2', '3', '3', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (226, '네이처스웨이 얼라이브 원스 데일리 남성 멀티비타민 60정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000085/1000000085_main_017.jpg', 24800, '3', '1', '2', '3', '1', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="229" spans="2:22" x14ac:dyDescent="0.3">
@@ -17620,11 +17620,11 @@
       </c>
       <c r="J229" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K229" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L229" s="10">
         <v>100</v>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="O229" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P229" s="3" t="s">
         <v>10</v>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="V229" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (227, '솔가 맥주효모 7 1,2 그레인 위드 비타민 B12 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/03/03/1000000350/1000000350_main_047.jpg', 19800, '3', '1', '2', '1', '3', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (227, '솔가 맥주효모 7 1,2 그레인 위드 비타민 B12 250정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/03/03/1000000350/1000000350_main_047.jpg', 19800, '3', '1', '2', '4', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="230" spans="2:22" x14ac:dyDescent="0.3">
@@ -17693,7 +17693,7 @@
       </c>
       <c r="K230" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L230" s="10">
         <v>100</v>
@@ -17706,7 +17706,7 @@
       </c>
       <c r="O230" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P230" s="3" t="s">
         <v>10</v>
@@ -17728,7 +17728,7 @@
       </c>
       <c r="V230" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (228, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '3', '1', '2', '2', '2', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (228, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '3', '1', '2', '2', '5', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="231" spans="2:22" x14ac:dyDescent="0.3">
@@ -17758,11 +17758,11 @@
       </c>
       <c r="J231" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K231" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L231" s="10">
         <v>100</v>
@@ -17775,7 +17775,7 @@
       </c>
       <c r="O231" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P231" s="3" t="s">
         <v>10</v>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="V231" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (229, '네이처스웨이 얼라이브 맥스3 멀티비타민 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg', 49600, '3', '1', '2', '2', '5', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (229, '네이처스웨이 얼라이브 맥스3 멀티비타민 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg', 49600, '3', '1', '2', '3', '3', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="232" spans="2:22" x14ac:dyDescent="0.3">
@@ -17827,11 +17827,11 @@
       </c>
       <c r="J232" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K232" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L232" s="10">
         <v>100</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="O232" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P232" s="3" t="s">
         <v>10</v>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="V232" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (230, '네이처스웨이 얼라이브 남성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000084/1000000084_main_058.jpg', 27500, '3', '1', '2', '3', '4', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (230, '네이처스웨이 얼라이브 남성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000084/1000000084_main_058.jpg', 27500, '3', '1', '2', '1', '6', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="233" spans="2:22" x14ac:dyDescent="0.3">
@@ -17896,11 +17896,11 @@
       </c>
       <c r="J233" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K233" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L233" s="10">
         <v>100</v>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="O233" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P233" s="3" t="s">
         <v>10</v>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="V233" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (231, '솔가 비타민B 컴플렉스 100mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000529/1000000529_main_032.jpg', 23500, '3', '1', '2', '3', '5', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (231, '솔가 비타민B 컴플렉스 100mg 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000529/1000000529_main_032.jpg', 23500, '3', '1', '2', '4', '7', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="234" spans="2:22" x14ac:dyDescent="0.3">
@@ -17965,11 +17965,11 @@
       </c>
       <c r="J234" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K234" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L234" s="10">
         <v>100</v>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="O234" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P234" s="3" t="s">
         <v>10</v>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="V234" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (232, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '1', '2', '3', '3', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (232, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '1', '2', '1', '5', 100, '메가푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="235" spans="2:22" x14ac:dyDescent="0.3">
@@ -18034,11 +18034,11 @@
       </c>
       <c r="J235" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K235" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L235" s="10">
         <v>100</v>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="O235" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P235" s="3" t="s">
         <v>10</v>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="V235" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (233, '솔가 맥주효모+비오틴 5000mcg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg', 39600, '3', '1', '2', '2', '7', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (233, '솔가 맥주효모+비오틴 5000mcg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg', 39600, '3', '1', '2', '4', '3', 100, '닥터스베스트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="236" spans="2:22" x14ac:dyDescent="0.3">
@@ -18172,11 +18172,11 @@
       </c>
       <c r="J237" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K237" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L237" s="10">
         <v>100</v>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="O237" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P237" s="3" t="s">
         <v>10</v>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="V237" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (235, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '3', '1', '2', '3', '1', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (235, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '3', '1', '2', '1', '7', 100, '마이카인드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="238" spans="2:22" x14ac:dyDescent="0.3">
@@ -18241,11 +18241,11 @@
       </c>
       <c r="J238" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K238" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L238" s="10">
         <v>100</v>
@@ -18258,7 +18258,7 @@
       </c>
       <c r="O238" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P238" s="3" t="s">
         <v>10</v>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="V238" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (236, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '3', '1', '2', '2', '3', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (236, '솔가 오메가3 EPA DHA 950mg 100소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/Solgar/100156_B-ComplexStressFormula_250T.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '3', '1', '2', '4', '7', 100, '뉴트리콜로지', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="239" spans="2:22" x14ac:dyDescent="0.3">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="J239" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K239" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="O239" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P239" s="3" t="s">
         <v>10</v>
@@ -18349,7 +18349,7 @@
       </c>
       <c r="V239" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (237, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '3', '1', '2', '4', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (237, '솔가 폴리코사놀 20mg 100캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/100943.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '3', '1', '2', '1', '5', 100, '소스오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="240" spans="2:22" x14ac:dyDescent="0.3">
@@ -18379,11 +18379,11 @@
       </c>
       <c r="J240" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K240" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L240" s="10">
         <v>100</v>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="O240" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P240" s="3" t="s">
         <v>10</v>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="V240" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (238, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '3', '1', '2', '5', '1', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (238, '솔가 식물성 코큐텐 200mg 60캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230525/102076_140139.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '3', '1', '2', '1', '6', 100, '쿄릭', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="241" spans="2:22" x14ac:dyDescent="0.3">
@@ -18448,11 +18448,11 @@
       </c>
       <c r="J241" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K241" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L241" s="10">
         <v>100</v>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="O241" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P241" s="3" t="s">
         <v>10</v>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="V241" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (239, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '3', '1', '2', '3', '3', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (239, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231219/100226_160138.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '3', '1', '2', '5', '7', 100, '리뉴라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="242" spans="2:22" x14ac:dyDescent="0.3">
@@ -18517,11 +18517,11 @@
       </c>
       <c r="J242" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K242" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L242" s="10">
         <v>100</v>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="O242" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P242" s="3" t="s">
         <v>10</v>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="V242" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (240, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '3', '1', '2', '5', '2', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (240, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/211015/101911_161631.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '3', '1', '2', '4', '6', 100, '프리마포스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 7, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="243" spans="2:22" x14ac:dyDescent="0.3">
@@ -18586,7 +18586,7 @@
       </c>
       <c r="J243" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K243" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -18603,7 +18603,7 @@
       </c>
       <c r="O243" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P243" s="3" t="s">
         <v>10</v>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="V243" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (241, '네이처스웨이 얼라이브 여성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/01/22/1000000305/1000000305_main_075.jpg', 31800, '3', '2', '2', '5', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (241, '네이처스웨이 얼라이브 여성 멀티비타민 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/01/22/1000000305/1000000305_main_075.jpg', 31800, '3', '2', '2', '4', '2', 100, '네이처스웨이', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="244" spans="2:22" x14ac:dyDescent="0.3">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="K244" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L244" s="10">
         <v>100</v>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="O244" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P244" s="3" t="s">
         <v>10</v>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="V244" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (242, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '2', '2', '3', '4', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (242, '닥터스베스트 멀티비타민 90베지 캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '3', '2', '2', '3', '5', 100, '나우푸드', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="245" spans="2:22" x14ac:dyDescent="0.3">
@@ -18728,7 +18728,7 @@
       </c>
       <c r="K245" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L245" s="10">
         <v>100</v>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="O245" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P245" s="3" t="s">
         <v>10</v>
@@ -18763,7 +18763,7 @@
       </c>
       <c r="V245" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (243, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '3', '2', '2', '5', '1', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (243, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '3', '2', '2', '5', '5', 100, '솔가', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="246" spans="2:22" x14ac:dyDescent="0.3">
@@ -18793,11 +18793,11 @@
       </c>
       <c r="J246" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K246" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L246" s="10">
         <v>100</v>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="O246" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P246" s="3" t="s">
         <v>10</v>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="V246" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (244, '나우푸드 맥주효모 650mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002138/1000002138_main_02.jpg', 12400, '3', '2', '2', '5', '7', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (244, '나우푸드 맥주효모 650mg 200정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/02/08//1000002138/1000002138_main_02.jpg', 12400, '3', '2', '2', '3', '3', 100, '블루보넷', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="247" spans="2:22" x14ac:dyDescent="0.3">
@@ -18859,11 +18859,11 @@
       </c>
       <c r="J247" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K247" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L247" s="10">
         <v>100</v>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="O247" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P247" s="3" t="s">
         <v>10</v>
@@ -18898,7 +18898,7 @@
       </c>
       <c r="V247" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (245, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', '', 26460, '3', '2', '2', '5', '6', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (245, '[유통기한임박상품] 레인보우라이트 우먼즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', '', 26460, '3', '2', '2', '1', '4', 100, 'YS에코비팜', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="248" spans="2:22" x14ac:dyDescent="0.3">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="K248" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L248" s="10">
         <v>100</v>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="O248" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P248" s="3" t="s">
         <v>10</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="V248" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (246, '네이처스웨이 비타민 C 1000 위드 로즈힙 250캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000340/1000000340_main_023.jpg', 33200, '3', '2', '2', '5', '5', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (246, '네이처스웨이 비타민 C 1000 위드 로즈힙 250캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/02/10/1000000340/1000000340_main_023.jpg', 33200, '3', '2', '2', '5', '3', 100, '네오셀', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="249" spans="2:22" x14ac:dyDescent="0.3">
@@ -18997,11 +18997,11 @@
       </c>
       <c r="J249" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K249" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L249" s="10">
         <v>100</v>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="O249" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P249" s="3" t="s">
         <v>10</v>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="V249" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (247, '메가푸드 우먼스 원 데일리 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000145/1000000145_main_063.jpg', 49700, '3', '2', '2', '3', '7', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (247, '메가푸드 우먼스 원 데일리 90정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000145/1000000145_main_063.jpg', 49700, '3', '2', '2', '2', '1', 100, '라이프익스텐선', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="250" spans="2:22" x14ac:dyDescent="0.3">
@@ -19070,7 +19070,7 @@
       </c>
       <c r="K250" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L250" s="10">
         <v>100</v>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="O250" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P250" s="3" t="s">
         <v>10</v>
@@ -19105,7 +19105,7 @@
       </c>
       <c r="V250" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (248, '가든오브라이프 비타민코드 철분 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/15/1000000584/1000000584_main_073.jpg', 25000, '3', '2', '2', '5', '7', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (248, '가든오브라이프 비타민코드 철분 30식물성캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/15/1000000584/1000000584_main_073.jpg', 25000, '3', '2', '2', '5', '5', 100, '노르딕내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 1, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="251" spans="2:22" x14ac:dyDescent="0.3">
@@ -19135,11 +19135,11 @@
       </c>
       <c r="J251" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K251" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L251" s="10">
         <v>100</v>
@@ -19152,7 +19152,7 @@
       </c>
       <c r="O251" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P251" s="3" t="s">
         <v>10</v>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="V251" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (249, '컨트리라이프 맥시C 컴플렉스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/02/1000000432/1000000432_main_095.jpg', 29900, '3', '2', '2', '1', '5', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (249, '컨트리라이프 맥시C 컴플렉스 1000mg 180정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/02/1000000432/1000000432_main_095.jpg', 29900, '3', '2', '2', '4', '2', 100, '자로우', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="252" spans="2:22" x14ac:dyDescent="0.3">
@@ -19204,11 +19204,11 @@
       </c>
       <c r="J252" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K252" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L252" s="10">
         <v>100</v>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="O252" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P252" s="3" t="s">
         <v>10</v>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="V252" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (250, '솔가 비타민 C 1000mg 위드 로즈힙 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000184/1000000184_main_022.jpg', 14300, '3', '2', '2', '1', '6', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (250, '솔가 비타민 C 1000mg 위드 로즈힙 100정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000184/1000000184_main_022.jpg', 14300, '3', '2', '2', '2', '2', 100, '뉴트렉스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="253" spans="2:22" x14ac:dyDescent="0.3">
@@ -19277,7 +19277,7 @@
       </c>
       <c r="K253" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L253" s="10">
         <v>100</v>
@@ -19290,7 +19290,7 @@
       </c>
       <c r="O253" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P253" s="3" t="s">
         <v>10</v>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="V253" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (251, '네이처스웨이 얼라이브 멀티비타민 여성 + 남성 90정 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/12/52/1000002186/1000002186_main_080.jpg', 55000, '3', '2', '2', '3', '6', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (251, '네이처스웨이 얼라이브 멀티비타민 여성 + 남성 90정 세트', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231127/102176_161239.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/12/52/1000002186/1000002186_main_080.jpg', 55000, '3', '2', '2', '3', '5', 100, '가든오브라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="254" spans="2:22" x14ac:dyDescent="0.3">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="O254" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P254" s="3" t="s">
         <v>10</v>
@@ -19381,7 +19381,7 @@
       </c>
       <c r="V254" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (252, '레인보우라이트 우먼즈+맨즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/11/46/1000002731/1000002731_main_072.jpg', 58200, '3', '2', '2', '5', '4', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (252, '레인보우라이트 우먼즈+맨즈 원 멀티비타민 120정', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230207/100251_120020.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/11/46/1000002731/1000002731_main_072.jpg', 58200, '3', '2', '2', '5', '4', 100, '나트롤', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="255" spans="2:22" x14ac:dyDescent="0.3">
@@ -19411,11 +19411,11 @@
       </c>
       <c r="J255" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K255" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L255" s="10">
         <v>100</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="O255" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P255" s="3" t="s">
         <v>10</v>
@@ -19450,7 +19450,7 @@
       </c>
       <c r="V255" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (253, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '3', '2', '2', '3', '2', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (253, '솔가 어드밴스드 멀티빌리언 도필러스 60 식물캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/231114/102438_175913.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000174/1000000174_main_047.jpg', 24800, '3', '2', '2', '5', '1', 100, '소스내추럴스', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="256" spans="2:22" x14ac:dyDescent="0.3">
@@ -19480,11 +19480,11 @@
       </c>
       <c r="J256" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K256" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L256" s="10">
         <v>100</v>
@@ -19497,7 +19497,7 @@
       </c>
       <c r="O256" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P256" s="3" t="s">
         <v>10</v>
@@ -19519,7 +19519,7 @@
       </c>
       <c r="V256" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (254, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '3', '2', '2', '5', '3', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (254, '자로우 도필러스 EPS 100억 프로바이오틱스 120캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/editor/goods/230412/100492_165816.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/11/45//1000002066/1000002066_main_066.jpg', 38600, '3', '2', '2', '1', '7', 100, '컨트리라이프', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="257" spans="2:22" x14ac:dyDescent="0.3">
@@ -19553,7 +19553,7 @@
       </c>
       <c r="K257" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L257" s="10">
         <v>100</v>
@@ -19566,7 +19566,7 @@
       </c>
       <c r="O257" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="P257" s="3" t="s">
         <v>10</v>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="V257" s="4" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (255, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '3', '2', '2', '5', '3', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (255, '자로우 도필러스 EPS 250억 프로바이오틱스 30캡슐', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/skin/front/0685everest/img_new/goods_view/naturesway/101932.jpg', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/09/19/1000000223/1000000223_main_020.jpg', 33200, '3', '2', '2', '5', '4', 100, '레인보우라이트', 'N', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'), NULL, SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="258" spans="2:22" x14ac:dyDescent="0.3">
